--- a/Jogos_da_Semana_FlashScore_2025-05-05.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-05.xlsx
@@ -647,19 +647,19 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H2" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I2" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J2" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L2" t="n">
         <v>1.3</v>
@@ -668,10 +668,10 @@
         <v>3.5</v>
       </c>
       <c r="N2" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="O2" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="P2" t="n">
         <v>1.4</v>
@@ -698,19 +698,19 @@
         <v>23</v>
       </c>
       <c r="X2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y2" t="n">
         <v>29</v>
       </c>
       <c r="Z2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA2" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC2" t="n">
         <v>51</v>
@@ -734,7 +734,7 @@
         <v>29</v>
       </c>
       <c r="AJ2" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3">
@@ -906,16 +906,16 @@
         <v>7</v>
       </c>
       <c r="L4" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="M4" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="N4" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="O4" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P4" t="n">
         <v>1.5</v>
@@ -1144,10 +1144,10 @@
         <v>4.1</v>
       </c>
       <c r="J6" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="K6" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="L6" t="n">
         <v>1.53</v>
@@ -1183,7 +1183,7 @@
         <v>10</v>
       </c>
       <c r="W6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="X6" t="n">
         <v>21</v>
@@ -1257,19 +1257,19 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="H7" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="I7" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="J7" t="n">
         <v>1.17</v>
       </c>
       <c r="K7" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="L7" t="n">
         <v>1.73</v>
@@ -1278,22 +1278,22 @@
         <v>2</v>
       </c>
       <c r="N7" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="O7" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P7" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="Q7" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="R7" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="S7" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T7" t="n">
         <v>4.75</v>
@@ -1314,16 +1314,16 @@
         <v>51</v>
       </c>
       <c r="Z7" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AA7" t="n">
         <v>6</v>
       </c>
       <c r="AB7" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC7" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AD7" t="n">
         <v>101</v>
@@ -1335,13 +1335,13 @@
         <v>19</v>
       </c>
       <c r="AG7" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH7" t="n">
         <v>51</v>
       </c>
       <c r="AI7" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AJ7" t="n">
         <v>67</v>
@@ -1385,7 +1385,7 @@
         <v>3.25</v>
       </c>
       <c r="I8" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J8" t="n">
         <v>1.05</v>
@@ -1424,7 +1424,7 @@
         <v>9.5</v>
       </c>
       <c r="V8" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W8" t="n">
         <v>17</v>
@@ -1454,7 +1454,7 @@
         <v>12</v>
       </c>
       <c r="AF8" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG8" t="n">
         <v>13</v>
@@ -1504,16 +1504,16 @@
         <v>1.83</v>
       </c>
       <c r="H9" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I9" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="J9" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L9" t="n">
         <v>1.33</v>
@@ -1522,10 +1522,10 @@
         <v>3.4</v>
       </c>
       <c r="N9" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="O9" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="P9" t="n">
         <v>1.4</v>
@@ -1573,7 +1573,7 @@
         <v>351</v>
       </c>
       <c r="AE9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF9" t="n">
         <v>21</v>
@@ -1623,13 +1623,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H10" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I10" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="J10" t="n">
         <v>1.07</v>
@@ -1644,10 +1644,10 @@
         <v>3.2</v>
       </c>
       <c r="N10" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="O10" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="P10" t="n">
         <v>1.44</v>
@@ -1662,7 +1662,7 @@
         <v>1.91</v>
       </c>
       <c r="T10" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="U10" t="n">
         <v>17</v>
@@ -1701,7 +1701,7 @@
         <v>10</v>
       </c>
       <c r="AG10" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH10" t="n">
         <v>21</v>
@@ -1867,37 +1867,37 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="H12" t="n">
         <v>2.85</v>
       </c>
       <c r="I12" t="n">
-        <v>3.95</v>
+        <v>4.35</v>
       </c>
       <c r="J12" t="n">
         <v>1.11</v>
       </c>
       <c r="K12" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="L12" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="M12" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="N12" t="n">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="O12" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="P12" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="R12" t="n">
         <v>1.98</v>
@@ -1906,25 +1906,25 @@
         <v>1.75</v>
       </c>
       <c r="T12" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="U12" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="V12" t="n">
         <v>8.75</v>
       </c>
       <c r="W12" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="X12" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Y12" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Z12" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="AA12" t="n">
         <v>5.6</v>
@@ -1939,19 +1939,19 @@
         <v>900</v>
       </c>
       <c r="AE12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AF12" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AG12" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AH12" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="AI12" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AJ12" t="n">
         <v>55</v>
@@ -2110,10 +2110,10 @@
         <v>1.62</v>
       </c>
       <c r="H14" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="I14" t="n">
-        <v>4.65</v>
+        <v>4.75</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
@@ -2151,19 +2151,19 @@
         <v>7.1</v>
       </c>
       <c r="W14" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="X14" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="Y14" t="n">
         <v>25</v>
       </c>
       <c r="Z14" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AA14" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="AB14" t="n">
         <v>15.5</v>
@@ -2175,16 +2175,16 @@
         <v>101</v>
       </c>
       <c r="AE14" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AF14" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG14" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AI14" t="n">
         <v>40</v>
@@ -2225,94 +2225,94 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="H15" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="I15" t="n">
-        <v>4.55</v>
+        <v>5.1</v>
       </c>
       <c r="J15" t="n">
         <v>1.07</v>
       </c>
       <c r="K15" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="L15" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="M15" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="N15" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="O15" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="P15" t="n">
         <v>1.4</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="R15" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="S15" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="T15" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="U15" t="n">
-        <v>8.25</v>
+        <v>7.7</v>
       </c>
       <c r="V15" t="n">
         <v>8.75</v>
       </c>
       <c r="W15" t="n">
+        <v>13</v>
+      </c>
+      <c r="X15" t="n">
         <v>15</v>
-      </c>
-      <c r="X15" t="n">
-        <v>16</v>
       </c>
       <c r="Y15" t="n">
         <v>32</v>
       </c>
       <c r="Z15" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AA15" t="n">
-        <v>7.1</v>
+        <v>7.5</v>
       </c>
       <c r="AB15" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AD15" t="n">
         <v>900</v>
       </c>
       <c r="AE15" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AF15" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AG15" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="AI15" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AJ15" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16">
@@ -2347,37 +2347,37 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="H16" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="I16" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="J16" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="K16" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="L16" t="n">
-        <v>1.23</v>
+        <v>1.18</v>
       </c>
       <c r="M16" t="n">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="N16" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="O16" t="n">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="P16" t="n">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.95</v>
+        <v>3.5</v>
       </c>
       <c r="R16" t="n">
         <v>1.57</v>
@@ -2386,7 +2386,7 @@
         <v>2.25</v>
       </c>
       <c r="T16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="U16" t="n">
         <v>19</v>
@@ -2395,40 +2395,40 @@
         <v>11</v>
       </c>
       <c r="W16" t="n">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="X16" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y16" t="n">
         <v>26</v>
       </c>
-      <c r="Y16" t="n">
-        <v>28</v>
-      </c>
       <c r="Z16" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="AA16" t="n">
-        <v>6.8</v>
+        <v>7.5</v>
       </c>
       <c r="AB16" t="n">
         <v>12</v>
       </c>
       <c r="AC16" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AD16" t="n">
-        <v>300</v>
+        <v>126</v>
       </c>
       <c r="AE16" t="n">
-        <v>9.25</v>
+        <v>10</v>
       </c>
       <c r="AF16" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AG16" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AH16" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI16" t="n">
         <v>15</v>
@@ -2469,94 +2469,94 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.27</v>
+        <v>2</v>
       </c>
       <c r="H17" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="I17" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="J17" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K17" t="n">
-        <v>7.8</v>
+        <v>13</v>
       </c>
       <c r="L17" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M17" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="N17" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="O17" t="n">
-        <v>1.98</v>
+        <v>2.08</v>
       </c>
       <c r="P17" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.8</v>
+        <v>3.25</v>
       </c>
       <c r="R17" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S17" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="T17" t="n">
         <v>9</v>
       </c>
       <c r="U17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V17" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="W17" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="X17" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y17" t="n">
         <v>23</v>
       </c>
       <c r="Z17" t="n">
-        <v>7.8</v>
+        <v>13</v>
       </c>
       <c r="AA17" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB17" t="n">
-        <v>11.75</v>
+        <v>13</v>
       </c>
       <c r="AC17" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AD17" t="n">
-        <v>300</v>
+        <v>151</v>
       </c>
       <c r="AE17" t="n">
-        <v>10.75</v>
+        <v>12</v>
       </c>
       <c r="AF17" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG17" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AH17" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="AI17" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AJ17" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18">
@@ -2591,43 +2591,43 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>4.1</v>
+        <v>4.33</v>
       </c>
       <c r="H18" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="I18" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="J18" t="n">
         <v>1.02</v>
       </c>
       <c r="K18" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="L18" t="n">
         <v>1.13</v>
       </c>
       <c r="M18" t="n">
-        <v>5.2</v>
+        <v>6</v>
       </c>
       <c r="N18" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="O18" t="n">
         <v>2.7</v>
       </c>
       <c r="P18" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="Q18" t="n">
-        <v>3.65</v>
+        <v>4</v>
       </c>
       <c r="R18" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="S18" t="n">
-        <v>2.57</v>
+        <v>2.5</v>
       </c>
       <c r="T18" t="n">
         <v>19</v>
@@ -2636,49 +2636,49 @@
         <v>29</v>
       </c>
       <c r="V18" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="W18" t="n">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="X18" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Y18" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Z18" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="AA18" t="n">
         <v>9</v>
       </c>
       <c r="AB18" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC18" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AD18" t="n">
-        <v>175</v>
+        <v>101</v>
       </c>
       <c r="AE18" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AF18" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AG18" t="n">
         <v>8.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AI18" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AJ18" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19">
@@ -2713,94 +2713,94 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="H19" t="n">
-        <v>4.35</v>
+        <v>4.75</v>
       </c>
       <c r="I19" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="J19" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="K19" t="n">
-        <v>9.5</v>
+        <v>23</v>
       </c>
       <c r="L19" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="M19" t="n">
-        <v>4.85</v>
+        <v>6</v>
       </c>
       <c r="N19" t="n">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="O19" t="n">
-        <v>2.55</v>
+        <v>2.88</v>
       </c>
       <c r="P19" t="n">
-        <v>1.26</v>
+        <v>1.22</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="R19" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="S19" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="T19" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="U19" t="n">
-        <v>9.25</v>
+        <v>10</v>
       </c>
       <c r="V19" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="W19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X19" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="Y19" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Z19" t="n">
-        <v>9.5</v>
+        <v>23</v>
       </c>
       <c r="AA19" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AB19" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AC19" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AD19" t="n">
-        <v>250</v>
+        <v>101</v>
       </c>
       <c r="AE19" t="n">
         <v>21</v>
       </c>
       <c r="AF19" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="AG19" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AH19" t="n">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="AI19" t="n">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="AJ19" t="n">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20">
@@ -2835,94 +2835,94 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="H20" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="I20" t="n">
         <v>2.5</v>
       </c>
       <c r="J20" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="K20" t="n">
-        <v>7.9</v>
+        <v>15</v>
       </c>
       <c r="L20" t="n">
-        <v>1.24</v>
+        <v>1.18</v>
       </c>
       <c r="M20" t="n">
-        <v>3.65</v>
+        <v>4.5</v>
       </c>
       <c r="N20" t="n">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="O20" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="P20" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="R20" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S20" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="T20" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="U20" t="n">
         <v>15</v>
       </c>
       <c r="V20" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="W20" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="X20" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Y20" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Z20" t="n">
-        <v>7.9</v>
+        <v>15</v>
       </c>
       <c r="AA20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB20" t="n">
-        <v>11.75</v>
+        <v>11</v>
       </c>
       <c r="AC20" t="n">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="AD20" t="n">
-        <v>300</v>
+        <v>126</v>
       </c>
       <c r="AE20" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AF20" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="AG20" t="n">
-        <v>9.25</v>
+        <v>10</v>
       </c>
       <c r="AH20" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AI20" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AJ20" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21">
@@ -2960,61 +2960,61 @@
         <v>3.8</v>
       </c>
       <c r="H21" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="I21" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="J21" t="n">
         <v>1.03</v>
       </c>
       <c r="K21" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="L21" t="n">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="M21" t="n">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="N21" t="n">
         <v>1.57</v>
       </c>
       <c r="O21" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="P21" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="Q21" t="n">
-        <v>3.15</v>
+        <v>3.5</v>
       </c>
       <c r="R21" t="n">
         <v>1.53</v>
       </c>
       <c r="S21" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="T21" t="n">
         <v>15</v>
       </c>
       <c r="U21" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="V21" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="W21" t="n">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="X21" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Y21" t="n">
         <v>29</v>
       </c>
       <c r="Z21" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="AA21" t="n">
         <v>7.5</v>
@@ -3023,28 +3023,28 @@
         <v>12</v>
       </c>
       <c r="AC21" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AD21" t="n">
-        <v>250</v>
+        <v>126</v>
       </c>
       <c r="AE21" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF21" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AG21" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AH21" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AI21" t="n">
         <v>13</v>
       </c>
       <c r="AJ21" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22">
@@ -3079,13 +3079,13 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H22" t="n">
         <v>2.7</v>
       </c>
       <c r="I22" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J22" t="n">
         <v>1.14</v>
@@ -3121,13 +3121,13 @@
         <v>5.5</v>
       </c>
       <c r="U22" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="V22" t="n">
         <v>10</v>
       </c>
       <c r="W22" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="X22" t="n">
         <v>21</v>
@@ -3151,7 +3151,7 @@
         <v>101</v>
       </c>
       <c r="AE22" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF22" t="n">
         <v>21</v>
@@ -3436,36 +3436,92 @@
           <t>Jaguares de Cordoba</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
+      <c r="G25" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="H25" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I25" t="n">
+        <v>2.2</v>
+      </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="inlineStr"/>
-      <c r="T25" t="inlineStr"/>
-      <c r="U25" t="inlineStr"/>
-      <c r="V25" t="inlineStr"/>
-      <c r="W25" t="inlineStr"/>
-      <c r="X25" t="inlineStr"/>
-      <c r="Y25" t="inlineStr"/>
-      <c r="Z25" t="inlineStr"/>
-      <c r="AA25" t="inlineStr"/>
-      <c r="AB25" t="inlineStr"/>
-      <c r="AC25" t="inlineStr"/>
-      <c r="AD25" t="inlineStr"/>
-      <c r="AE25" t="inlineStr"/>
-      <c r="AF25" t="inlineStr"/>
-      <c r="AG25" t="inlineStr"/>
-      <c r="AH25" t="inlineStr"/>
-      <c r="AI25" t="inlineStr"/>
-      <c r="AJ25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="N25" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="T25" t="n">
+        <v>9</v>
+      </c>
+      <c r="U25" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="W25" t="n">
+        <v>35</v>
+      </c>
+      <c r="X25" t="n">
+        <v>25</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>35</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>70</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>600</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>18</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3498,36 +3554,90 @@
           <t>Patriotas</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
+      <c r="G26" t="n">
+        <v>2</v>
+      </c>
+      <c r="H26" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>3.75</v>
+      </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="inlineStr"/>
-      <c r="T26" t="inlineStr"/>
-      <c r="U26" t="inlineStr"/>
-      <c r="V26" t="inlineStr"/>
-      <c r="W26" t="inlineStr"/>
-      <c r="X26" t="inlineStr"/>
-      <c r="Y26" t="inlineStr"/>
-      <c r="Z26" t="inlineStr"/>
-      <c r="AA26" t="inlineStr"/>
-      <c r="AB26" t="inlineStr"/>
-      <c r="AC26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M26" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="N26" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R26" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="T26" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="U26" t="n">
+        <v>8</v>
+      </c>
+      <c r="V26" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="W26" t="n">
+        <v>17</v>
+      </c>
+      <c r="X26" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>40</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>120</v>
+      </c>
       <c r="AD26" t="inlineStr"/>
-      <c r="AE26" t="inlineStr"/>
-      <c r="AF26" t="inlineStr"/>
-      <c r="AG26" t="inlineStr"/>
-      <c r="AH26" t="inlineStr"/>
-      <c r="AI26" t="inlineStr"/>
-      <c r="AJ26" t="inlineStr"/>
+      <c r="AE26" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>18</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>55</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>45</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3561,13 +3671,13 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>3.45</v>
+        <v>3.25</v>
       </c>
       <c r="H27" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="I27" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
@@ -3596,28 +3706,28 @@
         <v>1.93</v>
       </c>
       <c r="T27" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="U27" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="W27" t="n">
+        <v>40</v>
+      </c>
+      <c r="X27" t="n">
+        <v>28</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>35</v>
+      </c>
+      <c r="Z27" t="n">
         <v>11</v>
       </c>
-      <c r="U27" t="n">
-        <v>19</v>
-      </c>
-      <c r="V27" t="n">
-        <v>12</v>
-      </c>
-      <c r="W27" t="n">
-        <v>45</v>
-      </c>
-      <c r="X27" t="n">
-        <v>30</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>37</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>10.75</v>
-      </c>
       <c r="AA27" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AB27" t="n">
         <v>14.5</v>
@@ -3626,22 +3736,22 @@
         <v>65</v>
       </c>
       <c r="AD27" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AE27" t="n">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="AF27" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="AG27" t="n">
         <v>8.5</v>
       </c>
       <c r="AH27" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AI27" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AJ27" t="n">
         <v>26</v>
@@ -3679,84 +3789,84 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="H28" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="I28" t="n">
-        <v>5.2</v>
+        <v>4.8</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="M28" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="N28" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="O28" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="P28" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.47</v>
+        <v>2.52</v>
       </c>
       <c r="R28" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="S28" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="T28" t="n">
-        <v>7</v>
+        <v>7.3</v>
       </c>
       <c r="U28" t="n">
-        <v>8</v>
+        <v>8.75</v>
       </c>
       <c r="V28" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="W28" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="X28" t="n">
         <v>13</v>
       </c>
       <c r="Y28" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Z28" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AA28" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="AB28" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AC28" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AD28" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="AE28" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG28" t="n">
         <v>15</v>
       </c>
-      <c r="AF28" t="n">
-        <v>35</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>16</v>
-      </c>
       <c r="AH28" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AI28" t="n">
         <v>50</v>
@@ -3797,62 +3907,62 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>3.95</v>
+        <v>3.6</v>
       </c>
       <c r="H29" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I29" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="M29" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="N29" t="n">
         <v>1.65</v>
       </c>
       <c r="O29" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S29" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="T29" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="U29" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="V29" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W29" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="X29" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Y29" t="n">
         <v>32</v>
       </c>
       <c r="Z29" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AB29" t="n">
         <v>12.5</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>13</v>
       </c>
       <c r="AC29" t="n">
         <v>50</v>
@@ -3861,22 +3971,22 @@
         <v>350</v>
       </c>
       <c r="AE29" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="AF29" t="n">
-        <v>9.25</v>
+        <v>10.25</v>
       </c>
       <c r="AG29" t="n">
         <v>8.25</v>
       </c>
       <c r="AH29" t="n">
-        <v>15</v>
+        <v>17.5</v>
       </c>
       <c r="AI29" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AJ29" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30">
@@ -3914,7 +4024,7 @@
         <v>2.3</v>
       </c>
       <c r="H30" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I30" t="n">
         <v>3</v>
@@ -3926,16 +4036,16 @@
         <v>12</v>
       </c>
       <c r="L30" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M30" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N30" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="O30" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="P30" t="n">
         <v>1.33</v>
@@ -3959,7 +4069,7 @@
         <v>9.5</v>
       </c>
       <c r="W30" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X30" t="n">
         <v>17</v>
@@ -3992,7 +4102,7 @@
         <v>11</v>
       </c>
       <c r="AH30" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI30" t="n">
         <v>23</v>
@@ -4399,19 +4509,19 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="H34" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I34" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J34" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K34" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L34" t="n">
         <v>1.44</v>
@@ -4441,7 +4551,7 @@
         <v>5.5</v>
       </c>
       <c r="U34" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="V34" t="n">
         <v>9</v>
@@ -4450,7 +4560,7 @@
         <v>15</v>
       </c>
       <c r="X34" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y34" t="n">
         <v>34</v>
@@ -4521,13 +4631,13 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.48</v>
+        <v>1.3</v>
       </c>
       <c r="H35" t="n">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="I35" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="J35" t="n">
         <v>1.08</v>
@@ -4536,16 +4646,16 @@
         <v>7.5</v>
       </c>
       <c r="L35" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="M35" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N35" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="O35" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="P35" t="n">
         <v>1.44</v>
@@ -4554,22 +4664,22 @@
         <v>2.63</v>
       </c>
       <c r="R35" t="n">
-        <v>2.38</v>
+        <v>2.75</v>
       </c>
       <c r="S35" t="n">
-        <v>1.53</v>
+        <v>1.4</v>
       </c>
       <c r="T35" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="U35" t="n">
         <v>5</v>
       </c>
-      <c r="U35" t="n">
-        <v>6</v>
-      </c>
       <c r="V35" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W35" t="n">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="X35" t="n">
         <v>15</v>
@@ -4581,34 +4691,34 @@
         <v>7.5</v>
       </c>
       <c r="AA35" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="AB35" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AC35" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AD35" t="n">
         <v>501</v>
       </c>
       <c r="AE35" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AF35" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG35" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AH35" t="n">
+        <v>151</v>
+      </c>
+      <c r="AI35" t="n">
         <v>101</v>
       </c>
-      <c r="AI35" t="n">
-        <v>67</v>
-      </c>
       <c r="AJ35" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
     </row>
     <row r="36">
@@ -4664,10 +4774,10 @@
         <v>2.75</v>
       </c>
       <c r="N36" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="O36" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="P36" t="n">
         <v>1.44</v>
@@ -5295,31 +5405,31 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="H42" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I42" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="J42" t="n">
         <v>1.07</v>
       </c>
       <c r="K42" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L42" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M42" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N42" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O42" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="P42" t="n">
         <v>1.44</v>
@@ -5337,16 +5447,16 @@
         <v>6</v>
       </c>
       <c r="U42" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="V42" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W42" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X42" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y42" t="n">
         <v>29</v>
@@ -5355,10 +5465,10 @@
         <v>8.5</v>
       </c>
       <c r="AA42" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB42" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC42" t="n">
         <v>67</v>
@@ -5367,13 +5477,13 @@
         <v>401</v>
       </c>
       <c r="AE42" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF42" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG42" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH42" t="n">
         <v>51</v>
@@ -5417,19 +5527,19 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="H43" t="n">
         <v>3.1</v>
       </c>
       <c r="I43" t="n">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="J43" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K43" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L43" t="n">
         <v>1.44</v>
@@ -5459,22 +5569,22 @@
         <v>7</v>
       </c>
       <c r="U43" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V43" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W43" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="X43" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y43" t="n">
         <v>41</v>
       </c>
       <c r="Z43" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AA43" t="n">
         <v>6</v>
@@ -5489,10 +5599,10 @@
         <v>451</v>
       </c>
       <c r="AE43" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AF43" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG43" t="n">
         <v>11</v>
@@ -5539,19 +5649,19 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="H44" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I44" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="J44" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K44" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L44" t="n">
         <v>1.36</v>
@@ -5572,10 +5682,10 @@
         <v>2.63</v>
       </c>
       <c r="R44" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S44" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="T44" t="n">
         <v>5.5</v>
@@ -5587,7 +5697,7 @@
         <v>8.5</v>
       </c>
       <c r="W44" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X44" t="n">
         <v>15</v>
@@ -5599,28 +5709,28 @@
         <v>8</v>
       </c>
       <c r="AA44" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB44" t="n">
         <v>21</v>
       </c>
       <c r="AC44" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AD44" t="n">
-        <v>101</v>
+        <v>501</v>
       </c>
       <c r="AE44" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF44" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG44" t="n">
         <v>21</v>
       </c>
       <c r="AH44" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AI44" t="n">
         <v>51</v>
@@ -5673,7 +5783,7 @@
         <v>1.04</v>
       </c>
       <c r="K45" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L45" t="n">
         <v>1.22</v>
@@ -5706,7 +5816,7 @@
         <v>6</v>
       </c>
       <c r="V45" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W45" t="n">
         <v>8</v>
@@ -5721,13 +5831,13 @@
         <v>12</v>
       </c>
       <c r="AA45" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB45" t="n">
         <v>23</v>
       </c>
       <c r="AC45" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AD45" t="n">
         <v>501</v>
@@ -5742,7 +5852,7 @@
         <v>26</v>
       </c>
       <c r="AH45" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AI45" t="n">
         <v>67</v>
@@ -5783,13 +5893,13 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="H46" t="n">
         <v>3.1</v>
       </c>
       <c r="I46" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="J46" t="n">
         <v>1.08</v>
@@ -5822,16 +5932,16 @@
         <v>1.8</v>
       </c>
       <c r="T46" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="U46" t="n">
         <v>10</v>
       </c>
       <c r="V46" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W46" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X46" t="n">
         <v>21</v>
@@ -6027,13 +6137,13 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="H48" t="n">
-        <v>5</v>
+        <v>4.6</v>
       </c>
       <c r="I48" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
@@ -6044,69 +6154,69 @@
         <v>4.1</v>
       </c>
       <c r="N48" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="O48" t="n">
-        <v>2.16</v>
+        <v>2.07</v>
       </c>
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr"/>
       <c r="R48" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="S48" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="T48" t="n">
         <v>16</v>
       </c>
       <c r="U48" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="V48" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="W48" t="n">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="X48" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="Y48" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="Z48" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA48" t="n">
         <v>8</v>
       </c>
       <c r="AB48" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC48" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="AD48" t="n">
-        <v>101</v>
+        <v>500</v>
       </c>
       <c r="AE48" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AF48" t="n">
         <v>5.6</v>
       </c>
-      <c r="AF48" t="n">
-        <v>5</v>
-      </c>
       <c r="AG48" t="n">
-        <v>6.6</v>
+        <v>7.3</v>
       </c>
       <c r="AH48" t="n">
-        <v>6.6</v>
+        <v>7.1</v>
       </c>
       <c r="AI48" t="n">
-        <v>8.800000000000001</v>
+        <v>9.25</v>
       </c>
       <c r="AJ48" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49">
@@ -6141,77 +6251,77 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="H49" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="I49" t="n">
-        <v>1.89</v>
+        <v>1.93</v>
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="M49" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="N49" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="O49" t="n">
-        <v>1.98</v>
+        <v>1.87</v>
       </c>
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr"/>
       <c r="R49" t="n">
-        <v>1.67</v>
+        <v>1.71</v>
       </c>
       <c r="S49" t="n">
-        <v>2.07</v>
+        <v>2.01</v>
       </c>
       <c r="T49" t="n">
-        <v>9.4</v>
+        <v>9.25</v>
       </c>
       <c r="U49" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="V49" t="n">
-        <v>9.6</v>
+        <v>9.75</v>
       </c>
       <c r="W49" t="n">
+        <v>35</v>
+      </c>
+      <c r="X49" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AC49" t="n">
         <v>40</v>
       </c>
-      <c r="X49" t="n">
-        <v>24</v>
-      </c>
-      <c r="Y49" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z49" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AA49" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="AB49" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC49" t="n">
-        <v>50</v>
-      </c>
       <c r="AD49" t="n">
-        <v>101</v>
+        <v>300</v>
       </c>
       <c r="AE49" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AF49" t="n">
-        <v>7.8</v>
+        <v>8.25</v>
       </c>
       <c r="AG49" t="n">
-        <v>6.8</v>
+        <v>7.1</v>
       </c>
       <c r="AH49" t="n">
         <v>14</v>
@@ -6220,7 +6330,7 @@
         <v>12</v>
       </c>
       <c r="AJ49" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="50">
@@ -6522,10 +6632,10 @@
         <v>3.75</v>
       </c>
       <c r="N53" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="O53" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="P53" t="n">
         <v>1.36</v>
@@ -6745,13 +6855,13 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H55" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I55" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="J55" t="n">
         <v>1.07</v>
@@ -6817,7 +6927,7 @@
         <v>301</v>
       </c>
       <c r="AE55" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AF55" t="n">
         <v>17</v>
@@ -6829,7 +6939,7 @@
         <v>41</v>
       </c>
       <c r="AI55" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ55" t="n">
         <v>41</v>
@@ -6998,10 +7108,10 @@
         <v>3.2</v>
       </c>
       <c r="J57" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K57" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="L57" t="n">
         <v>1.5</v>
@@ -7010,10 +7120,10 @@
         <v>2.5</v>
       </c>
       <c r="N57" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="O57" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="P57" t="n">
         <v>1.53</v>
@@ -7111,13 +7221,13 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="H58" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I58" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J58" t="n">
         <v>1.05</v>
@@ -7132,16 +7242,16 @@
         <v>3.5</v>
       </c>
       <c r="N58" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="O58" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="P58" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q58" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R58" t="n">
         <v>2.2</v>
@@ -7159,7 +7269,7 @@
         <v>9</v>
       </c>
       <c r="W58" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="X58" t="n">
         <v>13</v>
@@ -7174,7 +7284,7 @@
         <v>8.5</v>
       </c>
       <c r="AB58" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC58" t="n">
         <v>81</v>
@@ -7183,22 +7293,22 @@
         <v>1250</v>
       </c>
       <c r="AE58" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF58" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG58" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH58" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AI58" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AJ58" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
     </row>
     <row r="59">
@@ -7233,88 +7343,88 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.98</v>
+        <v>1.88</v>
       </c>
       <c r="H59" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="I59" t="n">
-        <v>3.8</v>
+        <v>4.05</v>
       </c>
       <c r="J59" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K59" t="n">
-        <v>7.3</v>
+        <v>7.9</v>
       </c>
       <c r="L59" t="n">
-        <v>1.34</v>
+        <v>1.29</v>
       </c>
       <c r="M59" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="N59" t="n">
-        <v>1.98</v>
+        <v>1.85</v>
       </c>
       <c r="O59" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="P59" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="Q59" t="n">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="R59" t="n">
-        <v>1.8</v>
+        <v>1.72</v>
       </c>
       <c r="S59" t="n">
-        <v>1.91</v>
+        <v>2.02</v>
       </c>
       <c r="T59" t="n">
-        <v>6.9</v>
+        <v>7.4</v>
       </c>
       <c r="U59" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="V59" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W59" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="X59" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y59" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Z59" t="n">
-        <v>7.3</v>
+        <v>7.9</v>
       </c>
       <c r="AA59" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="AB59" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AC59" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AD59" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="AE59" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF59" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AG59" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AH59" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AI59" t="n">
         <v>40</v>
@@ -7416,36 +7526,92 @@
           <t>Jeddah</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr"/>
-      <c r="H61" t="inlineStr"/>
-      <c r="I61" t="inlineStr"/>
+      <c r="G61" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="H61" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I61" t="n">
+        <v>3.1</v>
+      </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="inlineStr"/>
-      <c r="O61" t="inlineStr"/>
-      <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
-      <c r="S61" t="inlineStr"/>
-      <c r="T61" t="inlineStr"/>
-      <c r="U61" t="inlineStr"/>
-      <c r="V61" t="inlineStr"/>
-      <c r="W61" t="inlineStr"/>
-      <c r="X61" t="inlineStr"/>
-      <c r="Y61" t="inlineStr"/>
-      <c r="Z61" t="inlineStr"/>
-      <c r="AA61" t="inlineStr"/>
-      <c r="AB61" t="inlineStr"/>
-      <c r="AC61" t="inlineStr"/>
-      <c r="AD61" t="inlineStr"/>
-      <c r="AE61" t="inlineStr"/>
-      <c r="AF61" t="inlineStr"/>
-      <c r="AG61" t="inlineStr"/>
-      <c r="AH61" t="inlineStr"/>
-      <c r="AI61" t="inlineStr"/>
-      <c r="AJ61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M61" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="N61" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="O61" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="P61" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="R61" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S61" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="T61" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="U61" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="V61" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="W61" t="n">
+        <v>17</v>
+      </c>
+      <c r="X61" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>28</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AB61" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC61" t="n">
+        <v>80</v>
+      </c>
+      <c r="AD61" t="n">
+        <v>101</v>
+      </c>
+      <c r="AE61" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AF61" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG61" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AH61" t="n">
+        <v>35</v>
+      </c>
+      <c r="AI61" t="n">
+        <v>25</v>
+      </c>
+      <c r="AJ61" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -7478,36 +7644,88 @@
           <t>Al Adalah</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr"/>
-      <c r="H62" t="inlineStr"/>
-      <c r="I62" t="inlineStr"/>
+      <c r="G62" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="H62" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="I62" t="n">
+        <v>2.25</v>
+      </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="inlineStr"/>
-      <c r="O62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="M62" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="N62" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="O62" t="n">
+        <v>2.02</v>
+      </c>
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
-      <c r="S62" t="inlineStr"/>
-      <c r="T62" t="inlineStr"/>
-      <c r="U62" t="inlineStr"/>
-      <c r="V62" t="inlineStr"/>
-      <c r="W62" t="inlineStr"/>
-      <c r="X62" t="inlineStr"/>
-      <c r="Y62" t="inlineStr"/>
-      <c r="Z62" t="inlineStr"/>
-      <c r="AA62" t="inlineStr"/>
-      <c r="AB62" t="inlineStr"/>
-      <c r="AC62" t="inlineStr"/>
-      <c r="AD62" t="inlineStr"/>
-      <c r="AE62" t="inlineStr"/>
-      <c r="AF62" t="inlineStr"/>
-      <c r="AG62" t="inlineStr"/>
-      <c r="AH62" t="inlineStr"/>
-      <c r="AI62" t="inlineStr"/>
-      <c r="AJ62" t="inlineStr"/>
+      <c r="R62" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="S62" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="T62" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="U62" t="n">
+        <v>12</v>
+      </c>
+      <c r="V62" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="W62" t="n">
+        <v>27</v>
+      </c>
+      <c r="X62" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z62" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA62" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AB62" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC62" t="n">
+        <v>40</v>
+      </c>
+      <c r="AD62" t="n">
+        <v>101</v>
+      </c>
+      <c r="AE62" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AF62" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AG62" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AH62" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI62" t="n">
+        <v>14</v>
+      </c>
+      <c r="AJ62" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -7603,94 +7821,94 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2.72</v>
+        <v>2.63</v>
       </c>
       <c r="H64" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="I64" t="n">
-        <v>2.67</v>
+        <v>2.63</v>
       </c>
       <c r="J64" t="n">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="K64" t="n">
-        <v>6.5</v>
+        <v>9</v>
       </c>
       <c r="L64" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="M64" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="N64" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O64" t="n">
         <v>1.65</v>
       </c>
       <c r="P64" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="Q64" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="R64" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="S64" t="n">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="T64" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="U64" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="V64" t="n">
-        <v>10.75</v>
+        <v>10</v>
       </c>
       <c r="W64" t="n">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="X64" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="Y64" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="Z64" t="n">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="AA64" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AB64" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AC64" t="n">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="AD64" t="n">
-        <v>800</v>
+        <v>351</v>
       </c>
       <c r="AE64" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="AF64" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AG64" t="n">
-        <v>10.75</v>
+        <v>10</v>
       </c>
       <c r="AH64" t="n">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="AI64" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AJ64" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="65">
@@ -7725,94 +7943,94 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="H65" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="I65" t="n">
-        <v>4.9</v>
+        <v>4.75</v>
       </c>
       <c r="J65" t="n">
         <v>1.06</v>
       </c>
       <c r="K65" t="n">
-        <v>7.7</v>
+        <v>10</v>
       </c>
       <c r="L65" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="M65" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N65" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="O65" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="P65" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q65" t="n">
-        <v>2.67</v>
+        <v>2.75</v>
       </c>
       <c r="R65" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="S65" t="n">
         <v>1.83</v>
       </c>
       <c r="T65" t="n">
-        <v>6.3</v>
+        <v>7</v>
       </c>
       <c r="U65" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="V65" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="W65" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="X65" t="n">
         <v>15</v>
       </c>
       <c r="Y65" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Z65" t="n">
-        <v>7.7</v>
+        <v>10</v>
       </c>
       <c r="AA65" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="AB65" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AC65" t="n">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="AD65" t="n">
-        <v>800</v>
+        <v>301</v>
       </c>
       <c r="AE65" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AF65" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="AG65" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH65" t="n">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="AI65" t="n">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="AJ65" t="n">
-        <v>55</v>
+        <v>41</v>
       </c>
     </row>
     <row r="66">
@@ -7847,19 +8065,19 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="H66" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I66" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="J66" t="n">
         <v>1.04</v>
       </c>
       <c r="K66" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L66" t="n">
         <v>1.25</v>
@@ -7868,16 +8086,16 @@
         <v>3.75</v>
       </c>
       <c r="N66" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="O66" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="P66" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q66" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R66" t="n">
         <v>1.73</v>
@@ -7913,13 +8131,13 @@
         <v>15</v>
       </c>
       <c r="AC66" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD66" t="n">
         <v>201</v>
       </c>
       <c r="AE66" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF66" t="n">
         <v>21</v>
@@ -7931,7 +8149,7 @@
         <v>41</v>
       </c>
       <c r="AI66" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ66" t="n">
         <v>34</v>
@@ -8091,19 +8309,19 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="H68" t="n">
         <v>3.6</v>
       </c>
       <c r="I68" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="J68" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K68" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L68" t="n">
         <v>1.3</v>
@@ -8130,19 +8348,19 @@
         <v>1.95</v>
       </c>
       <c r="T68" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="U68" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="V68" t="n">
         <v>9</v>
       </c>
-      <c r="V68" t="n">
-        <v>8.5</v>
-      </c>
       <c r="W68" t="n">
+        <v>19</v>
+      </c>
+      <c r="X68" t="n">
         <v>17</v>
-      </c>
-      <c r="X68" t="n">
-        <v>15</v>
       </c>
       <c r="Y68" t="n">
         <v>26</v>
@@ -8163,13 +8381,13 @@
         <v>251</v>
       </c>
       <c r="AE68" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF68" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AG68" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH68" t="n">
         <v>41</v>
@@ -8178,7 +8396,7 @@
         <v>29</v>
       </c>
       <c r="AJ68" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="69">
@@ -8222,22 +8440,22 @@
         <v>3.9</v>
       </c>
       <c r="J69" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K69" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L69" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M69" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N69" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="O69" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="P69" t="n">
         <v>1.4</v>
@@ -8469,7 +8687,7 @@
         <v>1.03</v>
       </c>
       <c r="K71" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L71" t="n">
         <v>1.17</v>

--- a/Jogos_da_Semana_FlashScore_2025-05-05.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-05.xlsx
@@ -656,10 +656,10 @@
         <v>3.2</v>
       </c>
       <c r="J2" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L2" t="n">
         <v>1.3</v>
@@ -668,10 +668,10 @@
         <v>3.5</v>
       </c>
       <c r="N2" t="n">
-        <v>2</v>
+        <v>2.01</v>
       </c>
       <c r="O2" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="P2" t="n">
         <v>1.4</v>
@@ -1013,13 +1013,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="H5" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="I5" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J5" t="n">
         <v>1.17</v>
@@ -1052,13 +1052,13 @@
         <v>1.53</v>
       </c>
       <c r="T5" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="U5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W5" t="n">
         <v>26</v>
@@ -1067,13 +1067,13 @@
         <v>29</v>
       </c>
       <c r="Y5" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="Z5" t="n">
         <v>5</v>
       </c>
       <c r="AA5" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AB5" t="n">
         <v>21</v>
@@ -1085,10 +1085,10 @@
         <v>101</v>
       </c>
       <c r="AE5" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AF5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG5" t="n">
         <v>13</v>
@@ -2957,13 +2957,13 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="H21" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I21" t="n">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="J21" t="n">
         <v>1.03</v>
@@ -2990,40 +2990,40 @@
         <v>3.5</v>
       </c>
       <c r="R21" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S21" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="T21" t="n">
         <v>15</v>
       </c>
       <c r="U21" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="V21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W21" t="n">
         <v>41</v>
       </c>
       <c r="X21" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Y21" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z21" t="n">
         <v>17</v>
       </c>
       <c r="AA21" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC21" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AD21" t="n">
         <v>126</v>
@@ -3032,13 +3032,13 @@
         <v>10</v>
       </c>
       <c r="AF21" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG21" t="n">
         <v>8.5</v>
       </c>
       <c r="AH21" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI21" t="n">
         <v>13</v>
@@ -4265,13 +4265,13 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="H32" t="n">
-        <v>2.77</v>
+        <v>2.8</v>
       </c>
       <c r="I32" t="n">
-        <v>2.45</v>
+        <v>2.42</v>
       </c>
       <c r="J32" t="n">
         <v>1.09</v>
@@ -4295,7 +4295,7 @@
         <v>1.42</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="R32" t="n">
         <v>1.75</v>
@@ -4319,7 +4319,7 @@
         <v>30</v>
       </c>
       <c r="Y32" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Z32" t="n">
         <v>6.1</v>
@@ -4337,16 +4337,16 @@
         <v>500</v>
       </c>
       <c r="AE32" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="AF32" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AG32" t="n">
         <v>9</v>
       </c>
       <c r="AH32" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AI32" t="n">
         <v>21</v>
@@ -4518,10 +4518,10 @@
         <v>4.75</v>
       </c>
       <c r="J34" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K34" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L34" t="n">
         <v>1.44</v>
@@ -4874,36 +4874,92 @@
           <t>Stjarnan</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr"/>
+      <c r="G37" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H37" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I37" t="n">
+        <v>2.27</v>
+      </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="inlineStr"/>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="inlineStr"/>
-      <c r="T37" t="inlineStr"/>
-      <c r="U37" t="inlineStr"/>
-      <c r="V37" t="inlineStr"/>
-      <c r="W37" t="inlineStr"/>
-      <c r="X37" t="inlineStr"/>
-      <c r="Y37" t="inlineStr"/>
-      <c r="Z37" t="inlineStr"/>
-      <c r="AA37" t="inlineStr"/>
-      <c r="AB37" t="inlineStr"/>
-      <c r="AC37" t="inlineStr"/>
-      <c r="AD37" t="inlineStr"/>
-      <c r="AE37" t="inlineStr"/>
-      <c r="AF37" t="inlineStr"/>
-      <c r="AG37" t="inlineStr"/>
-      <c r="AH37" t="inlineStr"/>
-      <c r="AI37" t="inlineStr"/>
-      <c r="AJ37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="N37" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="O37" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="P37" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R37" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S37" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="T37" t="n">
+        <v>11</v>
+      </c>
+      <c r="U37" t="n">
+        <v>14</v>
+      </c>
+      <c r="V37" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="W37" t="n">
+        <v>28</v>
+      </c>
+      <c r="X37" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>35</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>101</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>14</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -5527,19 +5583,19 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="H43" t="n">
         <v>3.1</v>
       </c>
       <c r="I43" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="J43" t="n">
         <v>1.08</v>
       </c>
       <c r="K43" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="L43" t="n">
         <v>1.44</v>
@@ -5575,7 +5631,7 @@
         <v>10</v>
       </c>
       <c r="W43" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="X43" t="n">
         <v>23</v>
@@ -5905,7 +5961,7 @@
         <v>1.08</v>
       </c>
       <c r="K46" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="L46" t="n">
         <v>1.4</v>
@@ -5914,10 +5970,10 @@
         <v>2.75</v>
       </c>
       <c r="N46" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="O46" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="P46" t="n">
         <v>1.5</v>
@@ -6632,10 +6688,10 @@
         <v>3.75</v>
       </c>
       <c r="N53" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="O53" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="P53" t="n">
         <v>1.36</v>
@@ -8431,19 +8487,19 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="H69" t="n">
         <v>3.5</v>
       </c>
       <c r="I69" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="J69" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K69" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L69" t="n">
         <v>1.3</v>
@@ -8452,10 +8508,10 @@
         <v>3.4</v>
       </c>
       <c r="N69" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="O69" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="P69" t="n">
         <v>1.4</v>
@@ -8470,22 +8526,22 @@
         <v>1.95</v>
       </c>
       <c r="T69" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="U69" t="n">
         <v>9</v>
       </c>
       <c r="V69" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W69" t="n">
         <v>17</v>
       </c>
       <c r="X69" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y69" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z69" t="n">
         <v>10</v>
@@ -8515,7 +8571,7 @@
         <v>41</v>
       </c>
       <c r="AI69" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ69" t="n">
         <v>41</v>

--- a/Jogos_da_Semana_FlashScore_2025-05-05.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-05.xlsx
@@ -650,10 +650,10 @@
         <v>2.2</v>
       </c>
       <c r="H2" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="I2" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="J2" t="n">
         <v>1.06</v>
@@ -698,19 +698,19 @@
         <v>23</v>
       </c>
       <c r="X2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y2" t="n">
         <v>29</v>
       </c>
       <c r="Z2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC2" t="n">
         <v>51</v>
@@ -734,7 +734,7 @@
         <v>29</v>
       </c>
       <c r="AJ2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3">
@@ -2734,10 +2734,10 @@
         <v>6</v>
       </c>
       <c r="N19" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="O19" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="P19" t="n">
         <v>1.22</v>
@@ -3619,7 +3619,9 @@
       <c r="AC26" t="n">
         <v>120</v>
       </c>
-      <c r="AD26" t="inlineStr"/>
+      <c r="AD26" t="n">
+        <v>101</v>
+      </c>
       <c r="AE26" t="n">
         <v>8.25</v>
       </c>
@@ -4631,88 +4633,88 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="H35" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="I35" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J35" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="K35" t="n">
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="L35" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M35" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="N35" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="P35" t="n">
         <v>1.36</v>
       </c>
-      <c r="M35" t="n">
+      <c r="Q35" t="n">
         <v>3</v>
       </c>
-      <c r="N35" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="O35" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="P35" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>2.63</v>
-      </c>
       <c r="R35" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="S35" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="T35" t="n">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="U35" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="V35" t="n">
         <v>9.5</v>
       </c>
       <c r="W35" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X35" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y35" t="n">
         <v>41</v>
       </c>
       <c r="Z35" t="n">
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="AA35" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AB35" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC35" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AD35" t="n">
         <v>501</v>
       </c>
       <c r="AE35" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AF35" t="n">
         <v>51</v>
       </c>
       <c r="AG35" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AH35" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AI35" t="n">
         <v>101</v>
@@ -4875,13 +4877,13 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="H37" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="I37" t="n">
-        <v>2.27</v>
+        <v>2.34</v>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
@@ -4892,10 +4894,10 @@
         <v>4.8</v>
       </c>
       <c r="N37" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="O37" t="n">
-        <v>2.42</v>
+        <v>2.41</v>
       </c>
       <c r="P37" t="n">
         <v>1.26</v>
@@ -4919,7 +4921,7 @@
         <v>8.6</v>
       </c>
       <c r="W37" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="X37" t="n">
         <v>16</v>
@@ -4931,13 +4933,13 @@
         <v>15</v>
       </c>
       <c r="AA37" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AB37" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AC37" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AD37" t="n">
         <v>101</v>
@@ -4949,10 +4951,10 @@
         <v>12</v>
       </c>
       <c r="AG37" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AH37" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI37" t="n">
         <v>14</v>
@@ -6193,86 +6195,86 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>7.2</v>
+        <v>8.5</v>
       </c>
       <c r="H48" t="n">
-        <v>4.6</v>
+        <v>4.9</v>
       </c>
       <c r="I48" t="n">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="M48" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="N48" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="O48" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr"/>
       <c r="R48" t="n">
-        <v>1.98</v>
+        <v>2.09</v>
       </c>
       <c r="S48" t="n">
-        <v>1.74</v>
+        <v>1.66</v>
       </c>
       <c r="T48" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="U48" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="V48" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="W48" t="n">
-        <v>120</v>
+        <v>175</v>
       </c>
       <c r="X48" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="Y48" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="Z48" t="n">
         <v>13</v>
       </c>
       <c r="AA48" t="n">
-        <v>8</v>
+        <v>8.75</v>
       </c>
       <c r="AB48" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC48" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AD48" t="n">
         <v>500</v>
       </c>
       <c r="AE48" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AF48" t="n">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="AG48" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="AH48" t="n">
-        <v>7.1</v>
+        <v>6.5</v>
       </c>
       <c r="AI48" t="n">
         <v>9.25</v>
       </c>
       <c r="AJ48" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49">
@@ -6307,86 +6309,90 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="H49" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="I49" t="n">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="M49" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="N49" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="O49" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
+        <v>1.8</v>
+      </c>
+      <c r="P49" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>2.5</v>
+      </c>
       <c r="R49" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="S49" t="n">
-        <v>2.01</v>
+        <v>1.91</v>
       </c>
       <c r="T49" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="U49" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="V49" t="n">
-        <v>9.75</v>
+        <v>10.5</v>
       </c>
       <c r="W49" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="X49" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y49" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z49" t="n">
-        <v>10.75</v>
+        <v>10</v>
       </c>
       <c r="AA49" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="AB49" t="n">
-        <v>11.25</v>
+        <v>11.75</v>
       </c>
       <c r="AC49" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AD49" t="n">
         <v>300</v>
       </c>
       <c r="AE49" t="n">
-        <v>6.8</v>
+        <v>6.2</v>
       </c>
       <c r="AF49" t="n">
-        <v>8.25</v>
+        <v>7.6</v>
       </c>
       <c r="AG49" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AH49" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI49" t="n">
         <v>12</v>
       </c>
       <c r="AJ49" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50">
@@ -7277,19 +7283,19 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="H58" t="n">
         <v>4.33</v>
       </c>
       <c r="I58" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="J58" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K58" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L58" t="n">
         <v>1.29</v>
@@ -7322,28 +7328,28 @@
         <v>6</v>
       </c>
       <c r="V58" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W58" t="n">
         <v>9</v>
-      </c>
-      <c r="W58" t="n">
-        <v>8.5</v>
       </c>
       <c r="X58" t="n">
         <v>13</v>
       </c>
       <c r="Y58" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z58" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA58" t="n">
         <v>8.5</v>
       </c>
       <c r="AB58" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC58" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AD58" t="n">
         <v>1250</v>
@@ -7358,13 +7364,13 @@
         <v>23</v>
       </c>
       <c r="AH58" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AI58" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AJ58" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
     </row>
     <row r="59">
@@ -8496,10 +8502,10 @@
         <v>3.75</v>
       </c>
       <c r="J69" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K69" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L69" t="n">
         <v>1.3</v>
@@ -8508,10 +8514,10 @@
         <v>3.4</v>
       </c>
       <c r="N69" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="O69" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="P69" t="n">
         <v>1.4</v>
@@ -8609,46 +8615,46 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="H70" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I70" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="J70" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="K70" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L70" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="M70" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="N70" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="O70" t="n">
-        <v>1.85</v>
+        <v>1.98</v>
       </c>
       <c r="P70" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q70" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R70" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="S70" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T70" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U70" t="n">
         <v>13</v>
@@ -8663,25 +8669,25 @@
         <v>21</v>
       </c>
       <c r="Y70" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z70" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AA70" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB70" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC70" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD70" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AE70" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF70" t="n">
         <v>13</v>
@@ -8696,7 +8702,7 @@
         <v>21</v>
       </c>
       <c r="AJ70" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="71">
@@ -8852,36 +8858,88 @@
           <t>Bani Yas</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr"/>
-      <c r="H72" t="inlineStr"/>
-      <c r="I72" t="inlineStr"/>
+      <c r="G72" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="H72" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I72" t="n">
+        <v>2.75</v>
+      </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="inlineStr"/>
-      <c r="O72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="M72" t="n">
+        <v>4</v>
+      </c>
+      <c r="N72" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="O72" t="n">
+        <v>2.06</v>
+      </c>
       <c r="P72" t="inlineStr"/>
       <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr"/>
-      <c r="S72" t="inlineStr"/>
-      <c r="T72" t="inlineStr"/>
-      <c r="U72" t="inlineStr"/>
-      <c r="V72" t="inlineStr"/>
-      <c r="W72" t="inlineStr"/>
-      <c r="X72" t="inlineStr"/>
-      <c r="Y72" t="inlineStr"/>
-      <c r="Z72" t="inlineStr"/>
-      <c r="AA72" t="inlineStr"/>
-      <c r="AB72" t="inlineStr"/>
-      <c r="AC72" t="inlineStr"/>
-      <c r="AD72" t="inlineStr"/>
-      <c r="AE72" t="inlineStr"/>
-      <c r="AF72" t="inlineStr"/>
-      <c r="AG72" t="inlineStr"/>
-      <c r="AH72" t="inlineStr"/>
-      <c r="AI72" t="inlineStr"/>
-      <c r="AJ72" t="inlineStr"/>
+      <c r="R72" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="S72" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="T72" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="U72" t="n">
+        <v>11</v>
+      </c>
+      <c r="V72" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="W72" t="n">
+        <v>20</v>
+      </c>
+      <c r="X72" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y72" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z72" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AA72" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB72" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC72" t="n">
+        <v>35</v>
+      </c>
+      <c r="AD72" t="n">
+        <v>101</v>
+      </c>
+      <c r="AE72" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AF72" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG72" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AH72" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI72" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ72" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">

--- a/Jogos_da_Semana_FlashScore_2025-05-05.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-05.xlsx
@@ -1522,10 +1522,10 @@
         <v>3.4</v>
       </c>
       <c r="N9" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="O9" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="P9" t="n">
         <v>1.4</v>
@@ -1644,10 +1644,10 @@
         <v>3.2</v>
       </c>
       <c r="N10" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="O10" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="P10" t="n">
         <v>1.44</v>
@@ -1745,37 +1745,37 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="H11" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I11" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="J11" t="n">
         <v>1.11</v>
       </c>
       <c r="K11" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="L11" t="n">
         <v>1.5</v>
       </c>
       <c r="M11" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="N11" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="O11" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="P11" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="R11" t="n">
         <v>2.15</v>
@@ -1784,13 +1784,13 @@
         <v>1.62</v>
       </c>
       <c r="T11" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="U11" t="n">
         <v>8.25</v>
       </c>
       <c r="V11" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="W11" t="n">
         <v>17.5</v>
@@ -1799,16 +1799,16 @@
         <v>19.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="Z11" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="AA11" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="AB11" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AC11" t="n">
         <v>120</v>
@@ -1820,13 +1820,13 @@
         <v>8.25</v>
       </c>
       <c r="AF11" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AG11" t="n">
         <v>14</v>
       </c>
       <c r="AH11" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AI11" t="n">
         <v>45</v>
@@ -2957,13 +2957,13 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="H21" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I21" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="J21" t="n">
         <v>1.03</v>
@@ -3008,7 +3008,7 @@
         <v>41</v>
       </c>
       <c r="X21" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y21" t="n">
         <v>26</v>
@@ -3029,19 +3029,19 @@
         <v>126</v>
       </c>
       <c r="AE21" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF21" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG21" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AH21" t="n">
         <v>19</v>
       </c>
       <c r="AI21" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ21" t="n">
         <v>21</v>
@@ -3437,90 +3437,90 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.92</v>
+        <v>3.7</v>
       </c>
       <c r="H25" t="n">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="I25" t="n">
-        <v>2.2</v>
+        <v>1.98</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
-        <v>1.3</v>
+        <v>1.37</v>
       </c>
       <c r="M25" t="n">
-        <v>2.95</v>
+        <v>2.65</v>
       </c>
       <c r="N25" t="n">
-        <v>1.87</v>
+        <v>2.07</v>
       </c>
       <c r="O25" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S25" t="n">
         <v>1.75</v>
       </c>
-      <c r="P25" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="R25" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="S25" t="n">
-        <v>1.88</v>
-      </c>
       <c r="T25" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="U25" t="n">
-        <v>14.5</v>
+        <v>19.5</v>
       </c>
       <c r="V25" t="n">
-        <v>10.75</v>
+        <v>13</v>
       </c>
       <c r="W25" t="n">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="X25" t="n">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="Y25" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="Z25" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AA25" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="AB25" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="AC25" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="AD25" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="AE25" t="n">
-        <v>7.7</v>
+        <v>6.3</v>
       </c>
       <c r="AF25" t="n">
-        <v>10.5</v>
+        <v>8.75</v>
       </c>
       <c r="AG25" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AH25" t="n">
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="AI25" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AJ25" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26">
@@ -4267,13 +4267,13 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>3.25</v>
+        <v>3.7</v>
       </c>
       <c r="H32" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="I32" t="n">
-        <v>2.42</v>
+        <v>2.2</v>
       </c>
       <c r="J32" t="n">
         <v>1.09</v>
@@ -4285,7 +4285,7 @@
         <v>1.37</v>
       </c>
       <c r="M32" t="n">
-        <v>2.85</v>
+        <v>2.87</v>
       </c>
       <c r="N32" t="n">
         <v>2.1</v>
@@ -4297,40 +4297,40 @@
         <v>1.42</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="R32" t="n">
         <v>1.75</v>
       </c>
       <c r="S32" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="T32" t="n">
-        <v>8.75</v>
+        <v>9.75</v>
       </c>
       <c r="U32" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="V32" t="n">
-        <v>10.75</v>
+        <v>12</v>
       </c>
       <c r="W32" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="X32" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="Y32" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Z32" t="n">
         <v>6.1</v>
       </c>
       <c r="AA32" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="AB32" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AC32" t="n">
         <v>60</v>
@@ -4339,22 +4339,22 @@
         <v>500</v>
       </c>
       <c r="AE32" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="AF32" t="n">
-        <v>12</v>
+        <v>10.75</v>
       </c>
       <c r="AG32" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AH32" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AI32" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AJ32" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33">
@@ -4389,28 +4389,28 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>3.45</v>
+        <v>3.75</v>
       </c>
       <c r="H33" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="I33" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="J33" t="n">
         <v>1.1</v>
       </c>
       <c r="K33" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="L33" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="M33" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="N33" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="O33" t="n">
         <v>1.55</v>
@@ -4422,37 +4422,37 @@
         <v>2.42</v>
       </c>
       <c r="R33" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="S33" t="n">
         <v>1.75</v>
       </c>
       <c r="T33" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U33" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="V33" t="n">
-        <v>11.75</v>
+        <v>12.5</v>
       </c>
       <c r="W33" t="n">
+        <v>55</v>
+      </c>
+      <c r="X33" t="n">
+        <v>37</v>
+      </c>
+      <c r="Y33" t="n">
         <v>50</v>
       </c>
-      <c r="X33" t="n">
-        <v>35</v>
-      </c>
-      <c r="Y33" t="n">
-        <v>45</v>
-      </c>
       <c r="Z33" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="AA33" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="AB33" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AC33" t="n">
         <v>90</v>
@@ -4461,19 +4461,19 @@
         <v>900</v>
       </c>
       <c r="AE33" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AF33" t="n">
-        <v>9.75</v>
+        <v>9</v>
       </c>
       <c r="AG33" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AH33" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="AI33" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AJ33" t="n">
         <v>37</v>
@@ -4633,10 +4633,10 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="H35" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="I35" t="n">
         <v>15</v>
@@ -4666,16 +4666,16 @@
         <v>3</v>
       </c>
       <c r="R35" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="S35" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T35" t="n">
         <v>5.5</v>
       </c>
       <c r="U35" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="V35" t="n">
         <v>9.5</v>
@@ -4699,13 +4699,13 @@
         <v>29</v>
       </c>
       <c r="AC35" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AD35" t="n">
         <v>501</v>
       </c>
       <c r="AE35" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF35" t="n">
         <v>51</v>
@@ -4717,7 +4717,7 @@
         <v>201</v>
       </c>
       <c r="AI35" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AJ35" t="n">
         <v>101</v>
@@ -4764,10 +4764,10 @@
         <v>1.48</v>
       </c>
       <c r="J36" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K36" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L36" t="n">
         <v>1.4</v>
@@ -4776,10 +4776,10 @@
         <v>2.75</v>
       </c>
       <c r="N36" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="O36" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="P36" t="n">
         <v>1.44</v>
@@ -4877,13 +4877,13 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.65</v>
+        <v>2.75</v>
       </c>
       <c r="H37" t="n">
         <v>3.75</v>
       </c>
       <c r="I37" t="n">
-        <v>2.34</v>
+        <v>2.28</v>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
@@ -4915,19 +4915,19 @@
         <v>11</v>
       </c>
       <c r="U37" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="V37" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="W37" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="X37" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Y37" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Z37" t="n">
         <v>15</v>
@@ -4936,7 +4936,7 @@
         <v>6.4</v>
       </c>
       <c r="AB37" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AC37" t="n">
         <v>30</v>
@@ -4954,7 +4954,7 @@
         <v>8</v>
       </c>
       <c r="AH37" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI37" t="n">
         <v>14</v>
@@ -5349,13 +5349,13 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="H41" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="I41" t="n">
-        <v>4.05</v>
+        <v>3.9</v>
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
@@ -5363,7 +5363,7 @@
         <v>1.22</v>
       </c>
       <c r="M41" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="N41" t="n">
         <v>1.65</v>
@@ -5380,28 +5380,28 @@
         <v>2.02</v>
       </c>
       <c r="T41" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="U41" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="V41" t="n">
         <v>8.25</v>
       </c>
       <c r="W41" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="X41" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Y41" t="n">
         <v>22</v>
       </c>
       <c r="Z41" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AA41" t="n">
-        <v>7.3</v>
+        <v>7.1</v>
       </c>
       <c r="AB41" t="n">
         <v>13.5</v>
@@ -5413,22 +5413,22 @@
         <v>350</v>
       </c>
       <c r="AE41" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AF41" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AG41" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH41" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AI41" t="n">
         <v>35</v>
       </c>
       <c r="AJ41" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42">
@@ -5597,7 +5597,7 @@
         <v>1.08</v>
       </c>
       <c r="K43" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="L43" t="n">
         <v>1.44</v>
@@ -6195,21 +6195,21 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="H48" t="n">
-        <v>4.9</v>
+        <v>4.85</v>
       </c>
       <c r="I48" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="M48" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="N48" t="n">
         <v>1.57</v>
@@ -6220,10 +6220,10 @@
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr"/>
       <c r="R48" t="n">
-        <v>2.09</v>
+        <v>2.11</v>
       </c>
       <c r="S48" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="T48" t="n">
         <v>18</v>
@@ -6235,13 +6235,13 @@
         <v>22</v>
       </c>
       <c r="W48" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="X48" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="Y48" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="Z48" t="n">
         <v>13</v>
@@ -6256,19 +6256,19 @@
         <v>80</v>
       </c>
       <c r="AD48" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AE48" t="n">
         <v>6.2</v>
       </c>
       <c r="AF48" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="AG48" t="n">
         <v>7.5</v>
       </c>
       <c r="AH48" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AI48" t="n">
         <v>9.25</v>
@@ -6309,87 +6309,87 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>3.7</v>
+        <v>3.95</v>
       </c>
       <c r="H49" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I49" t="n">
-        <v>1.85</v>
+        <v>1.78</v>
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="M49" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="N49" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="O49" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="P49" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="Q49" t="n">
-        <v>2.5</v>
+        <v>2.47</v>
       </c>
       <c r="R49" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="S49" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="T49" t="n">
         <v>9.5</v>
       </c>
       <c r="U49" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="V49" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="W49" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="X49" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Y49" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Z49" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AA49" t="n">
         <v>5.8</v>
       </c>
       <c r="AB49" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AC49" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AD49" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AE49" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="AF49" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="AG49" t="n">
         <v>7</v>
       </c>
       <c r="AH49" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI49" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AJ49" t="n">
         <v>20</v>
@@ -7589,10 +7589,10 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2.14</v>
+        <v>2.27</v>
       </c>
       <c r="H61" t="n">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="I61" t="n">
         <v>3.1</v>
@@ -7600,79 +7600,79 @@
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="M61" t="n">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="N61" t="n">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="O61" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="P61" t="n">
-        <v>1.46</v>
+        <v>1.4</v>
       </c>
       <c r="Q61" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="R61" t="n">
-        <v>1.88</v>
+        <v>1.75</v>
       </c>
       <c r="S61" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="T61" t="n">
-        <v>5.4</v>
+        <v>7.2</v>
       </c>
       <c r="U61" t="n">
-        <v>7.8</v>
+        <v>11</v>
       </c>
       <c r="V61" t="n">
-        <v>7.2</v>
+        <v>9</v>
       </c>
       <c r="W61" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="X61" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>30</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AB61" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC61" t="n">
+        <v>70</v>
+      </c>
+      <c r="AD61" t="n">
+        <v>600</v>
+      </c>
+      <c r="AE61" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AF61" t="n">
         <v>16</v>
       </c>
-      <c r="Y61" t="n">
-        <v>28</v>
-      </c>
-      <c r="Z61" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AA61" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="AB61" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC61" t="n">
-        <v>80</v>
-      </c>
-      <c r="AD61" t="n">
-        <v>101</v>
-      </c>
-      <c r="AE61" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AF61" t="n">
-        <v>12</v>
-      </c>
       <c r="AG61" t="n">
-        <v>9.199999999999999</v>
+        <v>11</v>
       </c>
       <c r="AH61" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AI61" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AJ61" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="62">
@@ -7707,86 +7707,86 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="H62" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="I62" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="M62" t="n">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="N62" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="O62" t="n">
-        <v>2.02</v>
+        <v>1.9</v>
       </c>
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr"/>
       <c r="R62" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="S62" t="n">
-        <v>2.18</v>
+        <v>2.07</v>
       </c>
       <c r="T62" t="n">
-        <v>8.4</v>
+        <v>11</v>
       </c>
       <c r="U62" t="n">
-        <v>12</v>
+        <v>18.5</v>
       </c>
       <c r="V62" t="n">
-        <v>8.199999999999999</v>
+        <v>11</v>
       </c>
       <c r="W62" t="n">
+        <v>45</v>
+      </c>
+      <c r="X62" t="n">
         <v>27</v>
       </c>
-      <c r="X62" t="n">
-        <v>18</v>
-      </c>
       <c r="Y62" t="n">
+        <v>30</v>
+      </c>
+      <c r="Z62" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA62" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB62" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC62" t="n">
+        <v>50</v>
+      </c>
+      <c r="AD62" t="n">
+        <v>350</v>
+      </c>
+      <c r="AE62" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AF62" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG62" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH62" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI62" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AJ62" t="n">
         <v>23</v>
-      </c>
-      <c r="Z62" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA62" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="AB62" t="n">
-        <v>10</v>
-      </c>
-      <c r="AC62" t="n">
-        <v>40</v>
-      </c>
-      <c r="AD62" t="n">
-        <v>101</v>
-      </c>
-      <c r="AE62" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AF62" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AG62" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AH62" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI62" t="n">
-        <v>14</v>
-      </c>
-      <c r="AJ62" t="n">
-        <v>20</v>
       </c>
     </row>
     <row r="63">
@@ -7820,36 +7820,88 @@
           <t>Al-Faisaly</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr"/>
-      <c r="H63" t="inlineStr"/>
-      <c r="I63" t="inlineStr"/>
+      <c r="G63" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="H63" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I63" t="n">
+        <v>5.9</v>
+      </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="inlineStr"/>
-      <c r="O63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="M63" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="N63" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="O63" t="n">
+        <v>2.05</v>
+      </c>
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
-      <c r="S63" t="inlineStr"/>
-      <c r="T63" t="inlineStr"/>
-      <c r="U63" t="inlineStr"/>
-      <c r="V63" t="inlineStr"/>
-      <c r="W63" t="inlineStr"/>
-      <c r="X63" t="inlineStr"/>
-      <c r="Y63" t="inlineStr"/>
-      <c r="Z63" t="inlineStr"/>
-      <c r="AA63" t="inlineStr"/>
-      <c r="AB63" t="inlineStr"/>
-      <c r="AC63" t="inlineStr"/>
-      <c r="AD63" t="inlineStr"/>
-      <c r="AE63" t="inlineStr"/>
-      <c r="AF63" t="inlineStr"/>
-      <c r="AG63" t="inlineStr"/>
-      <c r="AH63" t="inlineStr"/>
-      <c r="AI63" t="inlineStr"/>
-      <c r="AJ63" t="inlineStr"/>
+      <c r="R63" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="S63" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="T63" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="U63" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="V63" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="W63" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="X63" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>25</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AA63" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AB63" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC63" t="n">
+        <v>75</v>
+      </c>
+      <c r="AD63" t="n">
+        <v>600</v>
+      </c>
+      <c r="AE63" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AF63" t="n">
+        <v>37</v>
+      </c>
+      <c r="AG63" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH63" t="n">
+        <v>120</v>
+      </c>
+      <c r="AI63" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ63" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -8139,7 +8191,7 @@
         <v>1.04</v>
       </c>
       <c r="K66" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L66" t="n">
         <v>1.25</v>
@@ -8148,10 +8200,10 @@
         <v>3.75</v>
       </c>
       <c r="N66" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="O66" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="P66" t="n">
         <v>1.33</v>
@@ -8264,16 +8316,16 @@
         <v>17</v>
       </c>
       <c r="L67" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="M67" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N67" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="O67" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="P67" t="n">
         <v>1.29</v>
@@ -8386,16 +8438,16 @@
         <v>11</v>
       </c>
       <c r="L68" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M68" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N68" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="O68" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="P68" t="n">
         <v>1.4</v>
@@ -8737,19 +8789,19 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="H71" t="n">
         <v>3.5</v>
       </c>
       <c r="I71" t="n">
-        <v>2.38</v>
+        <v>2.45</v>
       </c>
       <c r="J71" t="n">
         <v>1.03</v>
       </c>
       <c r="K71" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L71" t="n">
         <v>1.17</v>
@@ -8776,7 +8828,7 @@
         <v>2.5</v>
       </c>
       <c r="T71" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="U71" t="n">
         <v>15</v>
@@ -8797,7 +8849,7 @@
         <v>17</v>
       </c>
       <c r="AA71" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB71" t="n">
         <v>11</v>
@@ -8818,10 +8870,10 @@
         <v>10</v>
       </c>
       <c r="AH71" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI71" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ71" t="n">
         <v>21</v>
@@ -8859,10 +8911,10 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="H72" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="I72" t="n">
         <v>2.75</v>
@@ -8884,16 +8936,16 @@
       <c r="P72" t="inlineStr"/>
       <c r="Q72" t="inlineStr"/>
       <c r="R72" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="S72" t="n">
-        <v>2.3</v>
+        <v>2.27</v>
       </c>
       <c r="T72" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="U72" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V72" t="n">
         <v>7.6</v>
@@ -8905,25 +8957,25 @@
         <v>15</v>
       </c>
       <c r="Y72" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z72" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AA72" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="AB72" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC72" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AD72" t="n">
         <v>101</v>
       </c>
       <c r="AE72" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AF72" t="n">
         <v>12</v>

--- a/Jogos_da_Semana_FlashScore_2025-05-05.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-05.xlsx
@@ -1745,7 +1745,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="H11" t="n">
         <v>3.1</v>
@@ -1775,7 +1775,7 @@
         <v>1.53</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="R11" t="n">
         <v>2.15</v>
@@ -2856,10 +2856,10 @@
         <v>4</v>
       </c>
       <c r="N20" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="O20" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="P20" t="n">
         <v>1.33</v>
@@ -3437,27 +3437,27 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>3.7</v>
+        <v>3.95</v>
       </c>
       <c r="H25" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="I25" t="n">
-        <v>1.98</v>
+        <v>1.88</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="M25" t="n">
-        <v>2.65</v>
+        <v>2.6</v>
       </c>
       <c r="N25" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="O25" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="P25" t="n">
         <v>1.47</v>
@@ -3466,61 +3466,61 @@
         <v>2.32</v>
       </c>
       <c r="R25" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="S25" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="T25" t="n">
         <v>9.5</v>
       </c>
       <c r="U25" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="V25" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="W25" t="n">
+        <v>60</v>
+      </c>
+      <c r="X25" t="n">
+        <v>40</v>
+      </c>
+      <c r="Y25" t="n">
         <v>55</v>
       </c>
-      <c r="X25" t="n">
-        <v>37</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>45</v>
-      </c>
       <c r="Z25" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>100</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AF25" t="n">
         <v>8</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>16</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>90</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>800</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>8.75</v>
       </c>
       <c r="AG25" t="n">
         <v>8.75</v>
       </c>
       <c r="AH25" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="AI25" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AJ25" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26">
@@ -3555,27 +3555,27 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2</v>
+        <v>2.55</v>
       </c>
       <c r="H26" t="n">
-        <v>3.1</v>
+        <v>2.95</v>
       </c>
       <c r="I26" t="n">
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="M26" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="N26" t="n">
-        <v>2.32</v>
+        <v>2.27</v>
       </c>
       <c r="O26" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="P26" t="n">
         <v>1.53</v>
@@ -3584,25 +3584,25 @@
         <v>2.2</v>
       </c>
       <c r="R26" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="S26" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="T26" t="n">
-        <v>5.5</v>
+        <v>6.8</v>
       </c>
       <c r="U26" t="n">
-        <v>8</v>
+        <v>11.75</v>
       </c>
       <c r="V26" t="n">
-        <v>9.25</v>
+        <v>10</v>
       </c>
       <c r="W26" t="n">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="X26" t="n">
-        <v>19.5</v>
+        <v>24</v>
       </c>
       <c r="Y26" t="n">
         <v>40</v>
@@ -3611,34 +3611,34 @@
         <v>6.9</v>
       </c>
       <c r="AA26" t="n">
-        <v>6.2</v>
+        <v>5.8</v>
       </c>
       <c r="AB26" t="n">
-        <v>19.5</v>
+        <v>16.5</v>
       </c>
       <c r="AC26" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AD26" t="n">
         <v>101</v>
       </c>
       <c r="AE26" t="n">
-        <v>8.25</v>
+        <v>6.9</v>
       </c>
       <c r="AF26" t="n">
-        <v>18</v>
+        <v>12.5</v>
       </c>
       <c r="AG26" t="n">
-        <v>13.5</v>
+        <v>10.75</v>
       </c>
       <c r="AH26" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="AI26" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ26" t="n">
         <v>45</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>60</v>
       </c>
     </row>
     <row r="27">
@@ -3791,13 +3791,13 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="H28" t="n">
         <v>3.3</v>
       </c>
       <c r="I28" t="n">
-        <v>4.75</v>
+        <v>4.7</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
@@ -3826,10 +3826,10 @@
         <v>1.93</v>
       </c>
       <c r="T28" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="U28" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="V28" t="n">
         <v>7.8</v>
@@ -3838,7 +3838,7 @@
         <v>14.5</v>
       </c>
       <c r="X28" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Y28" t="n">
         <v>23</v>
@@ -3847,10 +3847,10 @@
         <v>9.75</v>
       </c>
       <c r="AA28" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AB28" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AC28" t="n">
         <v>60</v>
@@ -3859,10 +3859,10 @@
         <v>450</v>
       </c>
       <c r="AE28" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AF28" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AG28" t="n">
         <v>15</v>
@@ -3871,7 +3871,7 @@
         <v>90</v>
       </c>
       <c r="AI28" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AJ28" t="n">
         <v>45</v>
@@ -4877,90 +4877,94 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.75</v>
+        <v>2.72</v>
       </c>
       <c r="H37" t="n">
-        <v>3.75</v>
+        <v>3.55</v>
       </c>
       <c r="I37" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+        <v>2.32</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K37" t="n">
+        <v>9.25</v>
+      </c>
       <c r="L37" t="n">
         <v>1.16</v>
       </c>
       <c r="M37" t="n">
-        <v>4.8</v>
+        <v>4.55</v>
       </c>
       <c r="N37" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="O37" t="n">
-        <v>2.41</v>
+        <v>2.4</v>
       </c>
       <c r="P37" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="Q37" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="R37" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="S37" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="T37" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="U37" t="n">
-        <v>15</v>
+        <v>18.5</v>
       </c>
       <c r="V37" t="n">
-        <v>8.800000000000001</v>
+        <v>10.25</v>
       </c>
       <c r="W37" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="X37" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y37" t="n">
         <v>20</v>
       </c>
       <c r="Z37" t="n">
-        <v>15</v>
+        <v>9.25</v>
       </c>
       <c r="AA37" t="n">
-        <v>6.4</v>
+        <v>7.5</v>
       </c>
       <c r="AB37" t="n">
-        <v>9.6</v>
+        <v>10.75</v>
       </c>
       <c r="AC37" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AD37" t="n">
-        <v>101</v>
+        <v>175</v>
       </c>
       <c r="AE37" t="n">
-        <v>10</v>
+        <v>11.75</v>
       </c>
       <c r="AF37" t="n">
-        <v>12</v>
+        <v>14.5</v>
       </c>
       <c r="AG37" t="n">
-        <v>8</v>
+        <v>9.25</v>
       </c>
       <c r="AH37" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AI37" t="n">
-        <v>14</v>
+        <v>16.5</v>
       </c>
       <c r="AJ37" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="38">
@@ -6195,7 +6199,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="H48" t="n">
         <v>4.85</v>
@@ -6212,21 +6216,21 @@
         <v>4.1</v>
       </c>
       <c r="N48" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="O48" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr"/>
       <c r="R48" t="n">
-        <v>2.11</v>
+        <v>2.13</v>
       </c>
       <c r="S48" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="T48" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="U48" t="n">
         <v>45</v>
@@ -6235,46 +6239,46 @@
         <v>22</v>
       </c>
       <c r="W48" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="X48" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="Y48" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="Z48" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AA48" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AB48" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AC48" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AD48" t="n">
         <v>600</v>
       </c>
       <c r="AE48" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="AF48" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="AG48" t="n">
         <v>7.5</v>
       </c>
       <c r="AH48" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AI48" t="n">
         <v>9.25</v>
       </c>
       <c r="AJ48" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="49">
@@ -6309,90 +6313,90 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>3.95</v>
+        <v>4.9</v>
       </c>
       <c r="H49" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="I49" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="M49" t="n">
-        <v>3.35</v>
+        <v>3.15</v>
       </c>
       <c r="N49" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="O49" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="P49" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="Q49" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="R49" t="n">
-        <v>1.81</v>
+        <v>2</v>
       </c>
       <c r="S49" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="T49" t="n">
-        <v>9.5</v>
+        <v>10.75</v>
       </c>
       <c r="U49" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="V49" t="n">
-        <v>11</v>
+        <v>13.5</v>
       </c>
       <c r="W49" t="n">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="X49" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="Y49" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="Z49" t="n">
         <v>9.75</v>
       </c>
       <c r="AA49" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>60</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>400</v>
+      </c>
+      <c r="AE49" t="n">
         <v>5.8</v>
       </c>
-      <c r="AB49" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC49" t="n">
-        <v>50</v>
-      </c>
-      <c r="AD49" t="n">
-        <v>350</v>
-      </c>
-      <c r="AE49" t="n">
-        <v>6</v>
-      </c>
       <c r="AF49" t="n">
-        <v>7.2</v>
+        <v>6.4</v>
       </c>
       <c r="AG49" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AH49" t="n">
-        <v>12</v>
+        <v>9.75</v>
       </c>
       <c r="AI49" t="n">
-        <v>11.75</v>
+        <v>10.5</v>
       </c>
       <c r="AJ49" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50">
@@ -6548,36 +6552,96 @@
           <t>Resistencia</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr"/>
-      <c r="H51" t="inlineStr"/>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="inlineStr"/>
-      <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="inlineStr"/>
-      <c r="T51" t="inlineStr"/>
-      <c r="U51" t="inlineStr"/>
-      <c r="V51" t="inlineStr"/>
-      <c r="W51" t="inlineStr"/>
-      <c r="X51" t="inlineStr"/>
-      <c r="Y51" t="inlineStr"/>
-      <c r="Z51" t="inlineStr"/>
-      <c r="AA51" t="inlineStr"/>
-      <c r="AB51" t="inlineStr"/>
-      <c r="AC51" t="inlineStr"/>
-      <c r="AD51" t="inlineStr"/>
-      <c r="AE51" t="inlineStr"/>
-      <c r="AF51" t="inlineStr"/>
-      <c r="AG51" t="inlineStr"/>
-      <c r="AH51" t="inlineStr"/>
-      <c r="AI51" t="inlineStr"/>
-      <c r="AJ51" t="inlineStr"/>
+      <c r="G51" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="H51" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="I51" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J51" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="K51" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="L51" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="M51" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="N51" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="O51" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P51" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R51" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="S51" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="T51" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="U51" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="V51" t="n">
+        <v>8</v>
+      </c>
+      <c r="W51" t="n">
+        <v>17</v>
+      </c>
+      <c r="X51" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>45</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>101</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>101</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG51" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH51" t="n">
+        <v>40</v>
+      </c>
+      <c r="AI51" t="n">
+        <v>35</v>
+      </c>
+      <c r="AJ51" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -6804,10 +6868,10 @@
         <v>2.5</v>
       </c>
       <c r="J54" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K54" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L54" t="n">
         <v>1.3</v>
@@ -6828,13 +6892,13 @@
         <v>2.75</v>
       </c>
       <c r="R54" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="S54" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="T54" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="U54" t="n">
         <v>13</v>
@@ -6864,7 +6928,7 @@
         <v>51</v>
       </c>
       <c r="AD54" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AE54" t="n">
         <v>8.5</v>
@@ -7707,27 +7771,27 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="H62" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I62" t="n">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="M62" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="N62" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="O62" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr"/>
@@ -7738,13 +7802,13 @@
         <v>2.07</v>
       </c>
       <c r="T62" t="n">
-        <v>11</v>
+        <v>11.75</v>
       </c>
       <c r="U62" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="V62" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="W62" t="n">
         <v>45</v>
@@ -7756,10 +7820,10 @@
         <v>30</v>
       </c>
       <c r="Z62" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AA62" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="AB62" t="n">
         <v>12.5</v>
@@ -7771,16 +7835,16 @@
         <v>350</v>
       </c>
       <c r="AE62" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="AF62" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AG62" t="n">
         <v>8.5</v>
       </c>
       <c r="AH62" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI62" t="n">
         <v>15.5</v>
@@ -7824,7 +7888,7 @@
         <v>1.45</v>
       </c>
       <c r="H63" t="n">
-        <v>4.4</v>
+        <v>4.35</v>
       </c>
       <c r="I63" t="n">
         <v>5.9</v>
@@ -7835,27 +7899,27 @@
         <v>1.2</v>
       </c>
       <c r="M63" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="N63" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="O63" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr"/>
       <c r="R63" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="S63" t="n">
         <v>1.82</v>
       </c>
       <c r="T63" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="U63" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="V63" t="n">
         <v>8.25</v>
@@ -7864,13 +7928,13 @@
         <v>9.75</v>
       </c>
       <c r="X63" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="Y63" t="n">
         <v>25</v>
       </c>
       <c r="Z63" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AA63" t="n">
         <v>8.75</v>
@@ -7879,13 +7943,13 @@
         <v>18</v>
       </c>
       <c r="AC63" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AD63" t="n">
         <v>600</v>
       </c>
       <c r="AE63" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AF63" t="n">
         <v>37</v>
@@ -7938,16 +8002,16 @@
         <v>2.63</v>
       </c>
       <c r="H64" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I64" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="J64" t="n">
         <v>1.07</v>
       </c>
       <c r="K64" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="L64" t="n">
         <v>1.36</v>
@@ -7998,7 +8062,7 @@
         <v>6</v>
       </c>
       <c r="AB64" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC64" t="n">
         <v>51</v>
@@ -8057,10 +8121,10 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="H65" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I65" t="n">
         <v>4.75</v>
@@ -8078,16 +8142,16 @@
         <v>3.5</v>
       </c>
       <c r="N65" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="O65" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="P65" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q65" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R65" t="n">
         <v>1.83</v>
@@ -8114,7 +8178,7 @@
         <v>26</v>
       </c>
       <c r="Z65" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA65" t="n">
         <v>7</v>
@@ -8129,7 +8193,7 @@
         <v>301</v>
       </c>
       <c r="AE65" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF65" t="n">
         <v>23</v>
@@ -8801,7 +8865,7 @@
         <v>1.03</v>
       </c>
       <c r="K71" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L71" t="n">
         <v>1.17</v>
@@ -8911,86 +8975,94 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2.4</v>
+        <v>1.91</v>
       </c>
       <c r="H72" t="n">
-        <v>3.35</v>
+        <v>3.6</v>
       </c>
       <c r="I72" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+        <v>3.55</v>
+      </c>
+      <c r="J72" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K72" t="n">
+        <v>8</v>
+      </c>
       <c r="L72" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="M72" t="n">
-        <v>4</v>
+        <v>3.65</v>
       </c>
       <c r="N72" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="O72" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="P72" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>2.92</v>
+      </c>
       <c r="R72" t="n">
-        <v>1.59</v>
+        <v>1.65</v>
       </c>
       <c r="S72" t="n">
-        <v>2.27</v>
+        <v>2.1</v>
       </c>
       <c r="T72" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U72" t="n">
         <v>10</v>
       </c>
       <c r="V72" t="n">
-        <v>7.6</v>
+        <v>8.25</v>
       </c>
       <c r="W72" t="n">
+        <v>17</v>
+      </c>
+      <c r="X72" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y72" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z72" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA72" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB72" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC72" t="n">
+        <v>55</v>
+      </c>
+      <c r="AD72" t="n">
+        <v>350</v>
+      </c>
+      <c r="AE72" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AF72" t="n">
         <v>20</v>
       </c>
-      <c r="X72" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y72" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z72" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA72" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="AB72" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AC72" t="n">
-        <v>40</v>
-      </c>
-      <c r="AD72" t="n">
-        <v>101</v>
-      </c>
-      <c r="AE72" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AF72" t="n">
+      <c r="AG72" t="n">
         <v>12</v>
       </c>
-      <c r="AG72" t="n">
-        <v>8.199999999999999</v>
-      </c>
       <c r="AH72" t="n">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="AI72" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="AJ72" t="n">
-        <v>22</v>
+        <v>35</v>
       </c>
     </row>
     <row r="73">
@@ -9024,36 +9096,96 @@
           <t>Al Urooba</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr"/>
-      <c r="H73" t="inlineStr"/>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="inlineStr"/>
-      <c r="O73" t="inlineStr"/>
-      <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr"/>
-      <c r="S73" t="inlineStr"/>
-      <c r="T73" t="inlineStr"/>
-      <c r="U73" t="inlineStr"/>
-      <c r="V73" t="inlineStr"/>
-      <c r="W73" t="inlineStr"/>
-      <c r="X73" t="inlineStr"/>
-      <c r="Y73" t="inlineStr"/>
-      <c r="Z73" t="inlineStr"/>
-      <c r="AA73" t="inlineStr"/>
-      <c r="AB73" t="inlineStr"/>
-      <c r="AC73" t="inlineStr"/>
-      <c r="AD73" t="inlineStr"/>
-      <c r="AE73" t="inlineStr"/>
-      <c r="AF73" t="inlineStr"/>
-      <c r="AG73" t="inlineStr"/>
-      <c r="AH73" t="inlineStr"/>
-      <c r="AI73" t="inlineStr"/>
-      <c r="AJ73" t="inlineStr"/>
+      <c r="G73" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H73" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I73" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="K73" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="L73" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="M73" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="N73" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="O73" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="P73" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R73" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S73" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T73" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="U73" t="n">
+        <v>9</v>
+      </c>
+      <c r="V73" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="W73" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="X73" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y73" t="n">
+        <v>22</v>
+      </c>
+      <c r="Z73" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AA73" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AB73" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC73" t="n">
+        <v>55</v>
+      </c>
+      <c r="AD73" t="n">
+        <v>350</v>
+      </c>
+      <c r="AE73" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AF73" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG73" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH73" t="n">
+        <v>70</v>
+      </c>
+      <c r="AI73" t="n">
+        <v>37</v>
+      </c>
+      <c r="AJ73" t="n">
+        <v>37</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Jogos_da_Semana_FlashScore_2025-05-05.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-05.xlsx
@@ -912,10 +912,10 @@
         <v>2.75</v>
       </c>
       <c r="N4" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P4" t="n">
         <v>1.5</v>
@@ -1266,10 +1266,10 @@
         <v>4.33</v>
       </c>
       <c r="J7" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="K7" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="L7" t="n">
         <v>1.73</v>
@@ -1290,10 +1290,10 @@
         <v>2.05</v>
       </c>
       <c r="R7" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="S7" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T7" t="n">
         <v>4.75</v>
@@ -1305,7 +1305,7 @@
         <v>11</v>
       </c>
       <c r="W7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X7" t="n">
         <v>26</v>
@@ -1335,7 +1335,7 @@
         <v>19</v>
       </c>
       <c r="AG7" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH7" t="n">
         <v>51</v>
@@ -1510,10 +1510,10 @@
         <v>4.2</v>
       </c>
       <c r="J9" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L9" t="n">
         <v>1.33</v>
@@ -1745,7 +1745,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="H11" t="n">
         <v>3.1</v>
@@ -2347,13 +2347,13 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="H16" t="n">
         <v>3.8</v>
       </c>
       <c r="I16" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="J16" t="n">
         <v>1.03</v>
@@ -2422,7 +2422,7 @@
         <v>9</v>
       </c>
       <c r="AF16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG16" t="n">
         <v>8.5</v>
@@ -3437,24 +3437,24 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>3.95</v>
+        <v>4.05</v>
       </c>
       <c r="H25" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I25" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="M25" t="n">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="N25" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="O25" t="n">
         <v>1.57</v>
@@ -3466,25 +3466,25 @@
         <v>2.32</v>
       </c>
       <c r="R25" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="S25" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="T25" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="U25" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="V25" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="W25" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="X25" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="Y25" t="n">
         <v>55</v>
@@ -3493,28 +3493,28 @@
         <v>7.8</v>
       </c>
       <c r="AA25" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AB25" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AC25" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AD25" t="n">
         <v>1000</v>
       </c>
       <c r="AE25" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="AF25" t="n">
-        <v>8</v>
+        <v>7.7</v>
       </c>
       <c r="AG25" t="n">
         <v>8.75</v>
       </c>
       <c r="AH25" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AI25" t="n">
         <v>17</v>
@@ -3558,10 +3558,10 @@
         <v>2.55</v>
       </c>
       <c r="H26" t="n">
-        <v>2.95</v>
+        <v>3.1</v>
       </c>
       <c r="I26" t="n">
-        <v>2.8</v>
+        <v>2.67</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -3578,64 +3578,64 @@
         <v>1.5</v>
       </c>
       <c r="P26" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="R26" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="S26" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="T26" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="U26" t="n">
-        <v>11.75</v>
+        <v>11.25</v>
       </c>
       <c r="V26" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="W26" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="X26" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Y26" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="Z26" t="n">
-        <v>6.9</v>
+        <v>7.2</v>
       </c>
       <c r="AA26" t="n">
-        <v>5.8</v>
+        <v>6.1</v>
       </c>
       <c r="AB26" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="AC26" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AD26" t="n">
         <v>101</v>
       </c>
       <c r="AE26" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AF26" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="AG26" t="n">
         <v>10.75</v>
       </c>
       <c r="AH26" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AI26" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AJ26" t="n">
         <v>45</v>
@@ -4267,55 +4267,55 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="H32" t="n">
         <v>2.82</v>
       </c>
       <c r="I32" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="J32" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="K32" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="L32" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="M32" t="n">
-        <v>2.87</v>
+        <v>2.77</v>
       </c>
       <c r="N32" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O32" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="P32" t="n">
         <v>1.42</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="R32" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S32" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="T32" t="n">
-        <v>9.75</v>
+        <v>9</v>
       </c>
       <c r="U32" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="V32" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="W32" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="X32" t="n">
         <v>35</v>
@@ -4324,37 +4324,37 @@
         <v>40</v>
       </c>
       <c r="Z32" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AA32" t="n">
         <v>5.5</v>
       </c>
       <c r="AB32" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AC32" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AD32" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AE32" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AF32" t="n">
         <v>10.75</v>
       </c>
       <c r="AG32" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AH32" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI32" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AJ32" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33">
@@ -4389,13 +4389,13 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>3.75</v>
+        <v>3.55</v>
       </c>
       <c r="H33" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="I33" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="J33" t="n">
         <v>1.1</v>
@@ -4404,13 +4404,13 @@
         <v>5.8</v>
       </c>
       <c r="L33" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="M33" t="n">
         <v>2.57</v>
       </c>
       <c r="N33" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="O33" t="n">
         <v>1.55</v>
@@ -4428,16 +4428,16 @@
         <v>1.75</v>
       </c>
       <c r="T33" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="U33" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="V33" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="W33" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="X33" t="n">
         <v>37</v>
@@ -4461,19 +4461,19 @@
         <v>900</v>
       </c>
       <c r="AE33" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AF33" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AG33" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AH33" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AI33" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ33" t="n">
         <v>37</v>
@@ -4877,94 +4877,94 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="H37" t="n">
         <v>3.55</v>
       </c>
       <c r="I37" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="J37" t="n">
         <v>1.03</v>
       </c>
       <c r="K37" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="L37" t="n">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="M37" t="n">
-        <v>4.55</v>
+        <v>4.35</v>
       </c>
       <c r="N37" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="O37" t="n">
-        <v>2.4</v>
+        <v>2.32</v>
       </c>
       <c r="P37" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="Q37" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="R37" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="S37" t="n">
-        <v>2.6</v>
+        <v>2.52</v>
       </c>
       <c r="T37" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="U37" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="V37" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="W37" t="n">
         <v>35</v>
       </c>
       <c r="X37" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Y37" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Z37" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AA37" t="n">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="AB37" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AC37" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AD37" t="n">
         <v>175</v>
       </c>
       <c r="AE37" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AF37" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AG37" t="n">
         <v>9.25</v>
       </c>
       <c r="AH37" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AI37" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AJ37" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38">
@@ -5711,19 +5711,19 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="H44" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I44" t="n">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="J44" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K44" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L44" t="n">
         <v>1.36</v>
@@ -5744,16 +5744,16 @@
         <v>2.63</v>
       </c>
       <c r="R44" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S44" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="T44" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="U44" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="V44" t="n">
         <v>8.5</v>
@@ -5774,7 +5774,7 @@
         <v>7</v>
       </c>
       <c r="AB44" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC44" t="n">
         <v>67</v>
@@ -5789,7 +5789,7 @@
         <v>29</v>
       </c>
       <c r="AG44" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH44" t="n">
         <v>67</v>
@@ -6568,34 +6568,34 @@
         <v>5.6</v>
       </c>
       <c r="L51" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="M51" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="N51" t="n">
         <v>2.7</v>
       </c>
       <c r="O51" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="P51" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="Q51" t="n">
-        <v>2.15</v>
+        <v>2.17</v>
       </c>
       <c r="R51" t="n">
-        <v>2.33</v>
+        <v>2.3</v>
       </c>
       <c r="S51" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="T51" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="U51" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="V51" t="n">
         <v>8</v>
@@ -6610,7 +6610,7 @@
         <v>45</v>
       </c>
       <c r="Z51" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="AA51" t="n">
         <v>5</v>
@@ -6625,7 +6625,7 @@
         <v>101</v>
       </c>
       <c r="AE51" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="AF51" t="n">
         <v>12</v>
@@ -8011,7 +8011,7 @@
         <v>1.07</v>
       </c>
       <c r="K64" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L64" t="n">
         <v>1.36</v>
@@ -8377,19 +8377,19 @@
         <v>1.03</v>
       </c>
       <c r="K67" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L67" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="M67" t="n">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="N67" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="O67" t="n">
-        <v>2.35</v>
+        <v>2.2</v>
       </c>
       <c r="P67" t="n">
         <v>1.29</v>
@@ -8398,16 +8398,16 @@
         <v>3.5</v>
       </c>
       <c r="R67" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="S67" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="T67" t="n">
         <v>8</v>
       </c>
       <c r="U67" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="V67" t="n">
         <v>8.5</v>
@@ -8740,22 +8740,22 @@
         <v>2.55</v>
       </c>
       <c r="J70" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K70" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L70" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M70" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N70" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="O70" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="P70" t="n">
         <v>1.36</v>
@@ -8865,7 +8865,7 @@
         <v>1.03</v>
       </c>
       <c r="K71" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L71" t="n">
         <v>1.17</v>
@@ -8874,10 +8874,10 @@
         <v>5</v>
       </c>
       <c r="N71" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="O71" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="P71" t="n">
         <v>1.29</v>
@@ -8978,7 +8978,7 @@
         <v>1.91</v>
       </c>
       <c r="H72" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="I72" t="n">
         <v>3.55</v>
@@ -9005,7 +9005,7 @@
         <v>1.35</v>
       </c>
       <c r="Q72" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="R72" t="n">
         <v>1.65</v>
@@ -9014,19 +9014,19 @@
         <v>2.1</v>
       </c>
       <c r="T72" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="U72" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="V72" t="n">
         <v>8.25</v>
       </c>
       <c r="W72" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="X72" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Y72" t="n">
         <v>23</v>
@@ -9035,7 +9035,7 @@
         <v>8</v>
       </c>
       <c r="AA72" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AB72" t="n">
         <v>13.5</v>
@@ -9047,7 +9047,7 @@
         <v>350</v>
       </c>
       <c r="AE72" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AF72" t="n">
         <v>20</v>
@@ -9059,10 +9059,10 @@
         <v>50</v>
       </c>
       <c r="AI72" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AJ72" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="73">
@@ -9097,94 +9097,94 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="H73" t="n">
-        <v>3.9</v>
+        <v>3.65</v>
       </c>
       <c r="I73" t="n">
-        <v>4.3</v>
+        <v>3.3</v>
       </c>
       <c r="J73" t="n">
         <v>1.04</v>
       </c>
       <c r="K73" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="L73" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="M73" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="N73" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="O73" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="P73" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>3</v>
+      </c>
+      <c r="R73" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S73" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="T73" t="n">
+        <v>9</v>
+      </c>
+      <c r="U73" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="V73" t="n">
         <v>8.5</v>
       </c>
-      <c r="L73" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="M73" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="N73" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="O73" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="P73" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="Q73" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="R73" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="S73" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="T73" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="U73" t="n">
-        <v>9</v>
-      </c>
-      <c r="V73" t="n">
-        <v>8.25</v>
-      </c>
       <c r="W73" t="n">
-        <v>13.5</v>
+        <v>18.5</v>
       </c>
       <c r="X73" t="n">
-        <v>12</v>
+        <v>14.5</v>
       </c>
       <c r="Y73" t="n">
         <v>22</v>
       </c>
       <c r="Z73" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AA73" t="n">
-        <v>7.7</v>
+        <v>7.1</v>
       </c>
       <c r="AB73" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AC73" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AD73" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AE73" t="n">
-        <v>14.5</v>
+        <v>11.75</v>
       </c>
       <c r="AF73" t="n">
-        <v>26</v>
+        <v>18.5</v>
       </c>
       <c r="AG73" t="n">
-        <v>14</v>
+        <v>11.5</v>
       </c>
       <c r="AH73" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="AI73" t="n">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="AJ73" t="n">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-05-05.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-05.xlsx
@@ -668,10 +668,10 @@
         <v>3.5</v>
       </c>
       <c r="N2" t="n">
-        <v>2.01</v>
+        <v>2</v>
       </c>
       <c r="O2" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="P2" t="n">
         <v>1.4</v>
@@ -912,10 +912,10 @@
         <v>2.75</v>
       </c>
       <c r="N4" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="O4" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P4" t="n">
         <v>1.5</v>
@@ -2347,13 +2347,13 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="H16" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I16" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="J16" t="n">
         <v>1.03</v>
@@ -2389,7 +2389,7 @@
         <v>13</v>
       </c>
       <c r="U16" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="V16" t="n">
         <v>12</v>
@@ -2419,16 +2419,16 @@
         <v>151</v>
       </c>
       <c r="AE16" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG16" t="n">
         <v>9</v>
       </c>
-      <c r="AF16" t="n">
-        <v>10</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>8.5</v>
-      </c>
       <c r="AH16" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI16" t="n">
         <v>15</v>
@@ -2591,13 +2591,13 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="H18" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="I18" t="n">
-        <v>1.7</v>
+        <v>1.83</v>
       </c>
       <c r="J18" t="n">
         <v>1.02</v>
@@ -2612,10 +2612,10 @@
         <v>6</v>
       </c>
       <c r="N18" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="O18" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="P18" t="n">
         <v>1.22</v>
@@ -2624,16 +2624,16 @@
         <v>4</v>
       </c>
       <c r="R18" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="S18" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="T18" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="U18" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="V18" t="n">
         <v>13</v>
@@ -2642,40 +2642,40 @@
         <v>41</v>
       </c>
       <c r="X18" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="Y18" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z18" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA18" t="n">
         <v>9</v>
       </c>
       <c r="AB18" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC18" t="n">
         <v>34</v>
       </c>
       <c r="AD18" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AE18" t="n">
         <v>12</v>
       </c>
       <c r="AF18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG18" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AH18" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI18" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ18" t="n">
         <v>17</v>
@@ -2835,13 +2835,13 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="H20" t="n">
         <v>3.4</v>
       </c>
       <c r="I20" t="n">
-        <v>2.63</v>
+        <v>2.8</v>
       </c>
       <c r="J20" t="n">
         <v>1.04</v>
@@ -2868,22 +2868,22 @@
         <v>3.25</v>
       </c>
       <c r="R20" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="S20" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="T20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U20" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="V20" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W20" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="X20" t="n">
         <v>19</v>
@@ -2913,13 +2913,13 @@
         <v>15</v>
       </c>
       <c r="AG20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH20" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI20" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ20" t="n">
         <v>26</v>
@@ -2957,31 +2957,31 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="H21" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I21" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="J21" t="n">
         <v>1.03</v>
       </c>
       <c r="K21" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L21" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="M21" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="N21" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="O21" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="P21" t="n">
         <v>1.29</v>
@@ -2996,16 +2996,16 @@
         <v>2.38</v>
       </c>
       <c r="T21" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="U21" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="V21" t="n">
         <v>12</v>
       </c>
       <c r="W21" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="X21" t="n">
         <v>23</v>
@@ -3014,22 +3014,22 @@
         <v>26</v>
       </c>
       <c r="Z21" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA21" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB21" t="n">
         <v>12</v>
       </c>
       <c r="AC21" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AD21" t="n">
         <v>126</v>
       </c>
       <c r="AE21" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF21" t="n">
         <v>12</v>
@@ -3079,13 +3079,13 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H22" t="n">
         <v>2.7</v>
       </c>
       <c r="I22" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J22" t="n">
         <v>1.14</v>
@@ -3121,13 +3121,13 @@
         <v>5.5</v>
       </c>
       <c r="U22" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="V22" t="n">
         <v>10</v>
       </c>
       <c r="W22" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="X22" t="n">
         <v>21</v>
@@ -3151,7 +3151,7 @@
         <v>101</v>
       </c>
       <c r="AE22" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF22" t="n">
         <v>21</v>
@@ -3319,27 +3319,27 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="H24" t="n">
-        <v>4.35</v>
+        <v>4.25</v>
       </c>
       <c r="I24" t="n">
-        <v>8.5</v>
+        <v>7.7</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="M24" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="N24" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="O24" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="P24" t="n">
         <v>1.38</v>
@@ -3348,37 +3348,37 @@
         <v>2.6</v>
       </c>
       <c r="R24" t="n">
-        <v>2.12</v>
+        <v>2.07</v>
       </c>
       <c r="S24" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="T24" t="n">
         <v>5.9</v>
       </c>
       <c r="U24" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="V24" t="n">
         <v>8.5</v>
       </c>
       <c r="W24" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X24" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Y24" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Z24" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AA24" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB24" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AC24" t="n">
         <v>120</v>
@@ -3387,22 +3387,22 @@
         <v>101</v>
       </c>
       <c r="AE24" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="AF24" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AG24" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AH24" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AI24" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AJ24" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25">
@@ -3437,18 +3437,18 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>4.05</v>
+        <v>4.1</v>
       </c>
       <c r="H25" t="n">
         <v>3.3</v>
       </c>
       <c r="I25" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="M25" t="n">
         <v>2.57</v>
@@ -3472,13 +3472,13 @@
         <v>1.65</v>
       </c>
       <c r="T25" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="U25" t="n">
         <v>21</v>
       </c>
       <c r="V25" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="W25" t="n">
         <v>65</v>
@@ -3487,10 +3487,10 @@
         <v>45</v>
       </c>
       <c r="Y25" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="Z25" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="AA25" t="n">
         <v>6.5</v>
@@ -3514,10 +3514,10 @@
         <v>8.75</v>
       </c>
       <c r="AH25" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AI25" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AJ25" t="n">
         <v>35</v>
@@ -3673,7 +3673,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="H27" t="n">
         <v>3.55</v>
@@ -3720,7 +3720,7 @@
         <v>40</v>
       </c>
       <c r="X27" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Y27" t="n">
         <v>35</v>
@@ -3735,7 +3735,7 @@
         <v>14.5</v>
       </c>
       <c r="AC27" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AD27" t="n">
         <v>450</v>
@@ -3747,10 +3747,10 @@
         <v>9.75</v>
       </c>
       <c r="AG27" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AH27" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AI27" t="n">
         <v>15.5</v>
@@ -4032,10 +4032,10 @@
         <v>3</v>
       </c>
       <c r="J30" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K30" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L30" t="n">
         <v>1.25</v>
@@ -4267,16 +4267,16 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="H32" t="n">
         <v>2.82</v>
       </c>
       <c r="I32" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="J32" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="K32" t="n">
         <v>6</v>
@@ -4285,19 +4285,19 @@
         <v>1.39</v>
       </c>
       <c r="M32" t="n">
-        <v>2.77</v>
+        <v>2.8</v>
       </c>
       <c r="N32" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="O32" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="P32" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.65</v>
+        <v>2.62</v>
       </c>
       <c r="R32" t="n">
         <v>1.8</v>
@@ -4306,13 +4306,13 @@
         <v>1.91</v>
       </c>
       <c r="T32" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="U32" t="n">
         <v>19</v>
       </c>
       <c r="V32" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="W32" t="n">
         <v>55</v>
@@ -4345,10 +4345,10 @@
         <v>10.75</v>
       </c>
       <c r="AG32" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AH32" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI32" t="n">
         <v>19</v>
@@ -4389,13 +4389,13 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>3.55</v>
+        <v>3.75</v>
       </c>
       <c r="H33" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="I33" t="n">
-        <v>2.18</v>
+        <v>2.1</v>
       </c>
       <c r="J33" t="n">
         <v>1.1</v>
@@ -4404,22 +4404,22 @@
         <v>5.8</v>
       </c>
       <c r="L33" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="M33" t="n">
         <v>2.57</v>
       </c>
       <c r="N33" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="O33" t="n">
         <v>1.55</v>
       </c>
       <c r="P33" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="R33" t="n">
         <v>1.98</v>
@@ -4428,19 +4428,19 @@
         <v>1.75</v>
       </c>
       <c r="T33" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="U33" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="V33" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="W33" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="X33" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Y33" t="n">
         <v>50</v>
@@ -4461,22 +4461,22 @@
         <v>900</v>
       </c>
       <c r="AE33" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AF33" t="n">
         <v>9.25</v>
       </c>
       <c r="AG33" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="AH33" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AI33" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ33" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34">
@@ -4633,13 +4633,13 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="H35" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="I35" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="J35" t="n">
         <v>1.06</v>
@@ -4648,10 +4648,10 @@
         <v>9.5</v>
       </c>
       <c r="L35" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M35" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N35" t="n">
         <v>1.9</v>
@@ -4666,22 +4666,22 @@
         <v>3</v>
       </c>
       <c r="R35" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="S35" t="n">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="T35" t="n">
         <v>5.5</v>
       </c>
       <c r="U35" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="V35" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="W35" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="X35" t="n">
         <v>13</v>
@@ -4693,34 +4693,34 @@
         <v>9.5</v>
       </c>
       <c r="AA35" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AB35" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AC35" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AD35" t="n">
         <v>501</v>
       </c>
       <c r="AE35" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AF35" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG35" t="n">
         <v>41</v>
       </c>
       <c r="AH35" t="n">
-        <v>201</v>
+        <v>351</v>
       </c>
       <c r="AI35" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AJ35" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
     </row>
     <row r="36">
@@ -4877,13 +4877,13 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="H37" t="n">
         <v>3.55</v>
       </c>
       <c r="I37" t="n">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="J37" t="n">
         <v>1.03</v>
@@ -4895,43 +4895,43 @@
         <v>1.18</v>
       </c>
       <c r="M37" t="n">
-        <v>4.35</v>
+        <v>4.3</v>
       </c>
       <c r="N37" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="O37" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="P37" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="Q37" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="R37" t="n">
         <v>1.47</v>
       </c>
       <c r="S37" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="T37" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="U37" t="n">
-        <v>17</v>
+        <v>19.5</v>
       </c>
       <c r="V37" t="n">
-        <v>10</v>
+        <v>10.75</v>
       </c>
       <c r="W37" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="X37" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Y37" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Z37" t="n">
         <v>9</v>
@@ -4946,25 +4946,25 @@
         <v>35</v>
       </c>
       <c r="AD37" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AE37" t="n">
-        <v>12</v>
+        <v>10.75</v>
       </c>
       <c r="AF37" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI37" t="n">
         <v>15</v>
       </c>
-      <c r="AG37" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AH37" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI37" t="n">
-        <v>16</v>
-      </c>
       <c r="AJ37" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="38">
@@ -5239,86 +5239,90 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="H40" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="I40" t="n">
-        <v>2.37</v>
+        <v>2.42</v>
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
-        <v>1.26</v>
+        <v>1.32</v>
       </c>
       <c r="M40" t="n">
-        <v>3.15</v>
+        <v>2.82</v>
       </c>
       <c r="N40" t="n">
-        <v>1.78</v>
+        <v>1.93</v>
       </c>
       <c r="O40" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
+        <v>1.7</v>
+      </c>
+      <c r="P40" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>2.7</v>
+      </c>
       <c r="R40" t="n">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="S40" t="n">
-        <v>1.98</v>
+        <v>1.85</v>
       </c>
       <c r="T40" t="n">
-        <v>9.5</v>
+        <v>8.25</v>
       </c>
       <c r="U40" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="V40" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="W40" t="n">
         <v>30</v>
       </c>
       <c r="X40" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Y40" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="Z40" t="n">
-        <v>10.75</v>
+        <v>9</v>
       </c>
       <c r="AA40" t="n">
-        <v>6.6</v>
+        <v>6.3</v>
       </c>
       <c r="AB40" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AC40" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AD40" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="AE40" t="n">
-        <v>8.5</v>
+        <v>7.8</v>
       </c>
       <c r="AF40" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AG40" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AH40" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI40" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ40" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41">
@@ -5476,10 +5480,10 @@
         <v>4.33</v>
       </c>
       <c r="J42" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K42" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L42" t="n">
         <v>1.36</v>
@@ -5488,10 +5492,10 @@
         <v>3</v>
       </c>
       <c r="N42" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="O42" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="P42" t="n">
         <v>1.44</v>
@@ -6313,10 +6317,10 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="H49" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I49" t="n">
         <v>1.6</v>
@@ -6324,79 +6328,79 @@
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="M49" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="N49" t="n">
-        <v>1.8</v>
+        <v>1.93</v>
       </c>
       <c r="O49" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="P49" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="Q49" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="R49" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="S49" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="T49" t="n">
-        <v>10.75</v>
+        <v>10</v>
       </c>
       <c r="U49" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V49" t="n">
         <v>13.5</v>
       </c>
       <c r="W49" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="X49" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="Y49" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="Z49" t="n">
-        <v>9.75</v>
+        <v>8.5</v>
       </c>
       <c r="AA49" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AB49" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="AC49" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AD49" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="AE49" t="n">
-        <v>5.8</v>
+        <v>5.2</v>
       </c>
       <c r="AF49" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="AG49" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AH49" t="n">
         <v>9.75</v>
       </c>
       <c r="AI49" t="n">
-        <v>10.5</v>
+        <v>11.25</v>
       </c>
       <c r="AJ49" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="50">
@@ -7103,13 +7107,13 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H56" t="n">
         <v>3.2</v>
       </c>
       <c r="I56" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="J56" t="n">
         <v>1.05</v>
@@ -7124,10 +7128,10 @@
         <v>3.5</v>
       </c>
       <c r="N56" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="O56" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="P56" t="n">
         <v>1.36</v>
@@ -7145,19 +7149,19 @@
         <v>10</v>
       </c>
       <c r="U56" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="V56" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W56" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="X56" t="n">
         <v>23</v>
       </c>
       <c r="Y56" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z56" t="n">
         <v>10</v>
@@ -7178,7 +7182,7 @@
         <v>8.5</v>
       </c>
       <c r="AF56" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG56" t="n">
         <v>9.5</v>
@@ -8020,10 +8024,10 @@
         <v>3</v>
       </c>
       <c r="N64" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O64" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="P64" t="n">
         <v>1.44</v>
@@ -8121,13 +8125,13 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="H65" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I65" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J65" t="n">
         <v>1.05</v>
@@ -8142,10 +8146,10 @@
         <v>3.5</v>
       </c>
       <c r="N65" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="O65" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="P65" t="n">
         <v>1.36</v>
@@ -8193,7 +8197,7 @@
         <v>301</v>
       </c>
       <c r="AE65" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF65" t="n">
         <v>23</v>
@@ -8243,25 +8247,25 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="H66" t="n">
         <v>3.7</v>
       </c>
       <c r="I66" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="J66" t="n">
         <v>1.04</v>
       </c>
       <c r="K66" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L66" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M66" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N66" t="n">
         <v>1.8</v>
@@ -8285,7 +8289,7 @@
         <v>8</v>
       </c>
       <c r="U66" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="V66" t="n">
         <v>8.5</v>
@@ -8327,7 +8331,7 @@
         <v>41</v>
       </c>
       <c r="AI66" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ66" t="n">
         <v>34</v>
@@ -8853,13 +8857,13 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="H71" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I71" t="n">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="J71" t="n">
         <v>1.03</v>
@@ -8880,10 +8884,10 @@
         <v>2.4</v>
       </c>
       <c r="P71" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="Q71" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="R71" t="n">
         <v>1.5</v>
@@ -8901,19 +8905,19 @@
         <v>10</v>
       </c>
       <c r="W71" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="X71" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y71" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Z71" t="n">
         <v>17</v>
       </c>
       <c r="AA71" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB71" t="n">
         <v>11</v>
@@ -8925,10 +8929,10 @@
         <v>101</v>
       </c>
       <c r="AE71" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF71" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG71" t="n">
         <v>10</v>
@@ -9097,13 +9101,13 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="H73" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="I73" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="J73" t="n">
         <v>1.04</v>
@@ -9115,7 +9119,7 @@
         <v>1.23</v>
       </c>
       <c r="M73" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="N73" t="n">
         <v>1.7</v>
@@ -9124,16 +9128,16 @@
         <v>2.05</v>
       </c>
       <c r="P73" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="Q73" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="R73" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S73" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="T73" t="n">
         <v>9</v>
@@ -9157,10 +9161,10 @@
         <v>8.25</v>
       </c>
       <c r="AA73" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AB73" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC73" t="n">
         <v>50</v>
@@ -9172,7 +9176,7 @@
         <v>11.75</v>
       </c>
       <c r="AF73" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AG73" t="n">
         <v>11.5</v>

--- a/Jogos_da_Semana_FlashScore_2025-05-05.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-05.xlsx
@@ -647,13 +647,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H2" t="n">
         <v>3.4</v>
       </c>
       <c r="I2" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="J2" t="n">
         <v>1.06</v>
@@ -686,7 +686,7 @@
         <v>2</v>
       </c>
       <c r="T2" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U2" t="n">
         <v>12</v>
@@ -716,7 +716,7 @@
         <v>51</v>
       </c>
       <c r="AD2" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AE2" t="n">
         <v>11</v>
@@ -734,7 +734,7 @@
         <v>29</v>
       </c>
       <c r="AJ2" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3">
@@ -790,10 +790,10 @@
         <v>3.75</v>
       </c>
       <c r="N3" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="O3" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="P3" t="n">
         <v>1.36</v>
@@ -1644,10 +1644,10 @@
         <v>3.2</v>
       </c>
       <c r="N10" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="O10" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="P10" t="n">
         <v>1.44</v>
@@ -2347,13 +2347,13 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="H16" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I16" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="J16" t="n">
         <v>1.03</v>
@@ -2389,7 +2389,7 @@
         <v>13</v>
       </c>
       <c r="U16" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="V16" t="n">
         <v>12</v>
@@ -2419,16 +2419,16 @@
         <v>151</v>
       </c>
       <c r="AE16" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG16" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI16" t="n">
         <v>15</v>
@@ -2469,13 +2469,13 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="H17" t="n">
         <v>3.6</v>
       </c>
       <c r="I17" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J17" t="n">
         <v>1.04</v>
@@ -2511,13 +2511,13 @@
         <v>9</v>
       </c>
       <c r="U17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V17" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W17" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="X17" t="n">
         <v>15</v>
@@ -2541,7 +2541,7 @@
         <v>151</v>
       </c>
       <c r="AE17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF17" t="n">
         <v>19</v>
@@ -2612,10 +2612,10 @@
         <v>6</v>
       </c>
       <c r="N18" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="O18" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="P18" t="n">
         <v>1.22</v>
@@ -2725,19 +2725,19 @@
         <v>1.02</v>
       </c>
       <c r="K19" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L19" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="M19" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="N19" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="O19" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="P19" t="n">
         <v>1.22</v>
@@ -2835,13 +2835,13 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.45</v>
+        <v>2.35</v>
       </c>
       <c r="H20" t="n">
         <v>3.4</v>
       </c>
       <c r="I20" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="J20" t="n">
         <v>1.04</v>
@@ -2886,7 +2886,7 @@
         <v>23</v>
       </c>
       <c r="X20" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y20" t="n">
         <v>23</v>
@@ -2957,7 +2957,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="H21" t="n">
         <v>3.7</v>
@@ -2972,16 +2972,16 @@
         <v>15</v>
       </c>
       <c r="L21" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="M21" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="N21" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="O21" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="P21" t="n">
         <v>1.29</v>
@@ -2990,10 +2990,10 @@
         <v>3.5</v>
       </c>
       <c r="R21" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S21" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="T21" t="n">
         <v>13</v>
@@ -3909,10 +3909,10 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="H29" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="I29" t="n">
         <v>1.9</v>
@@ -3920,16 +3920,16 @@
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="M29" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="N29" t="n">
         <v>1.65</v>
       </c>
       <c r="O29" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>12</v>
       </c>
       <c r="W29" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="X29" t="n">
         <v>30</v>
@@ -3958,19 +3958,19 @@
         <v>32</v>
       </c>
       <c r="Z29" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AA29" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AB29" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AC29" t="n">
         <v>50</v>
       </c>
       <c r="AD29" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AE29" t="n">
         <v>8.75</v>
@@ -3982,7 +3982,7 @@
         <v>8.25</v>
       </c>
       <c r="AH29" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AI29" t="n">
         <v>14</v>
@@ -4776,10 +4776,10 @@
         <v>2.75</v>
       </c>
       <c r="N36" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="O36" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="P36" t="n">
         <v>1.44</v>
@@ -5250,64 +5250,64 @@
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="M40" t="n">
-        <v>2.82</v>
+        <v>2.9</v>
       </c>
       <c r="N40" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="O40" t="n">
         <v>1.7</v>
       </c>
       <c r="P40" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="R40" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="S40" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="T40" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="U40" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="V40" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="W40" t="n">
         <v>30</v>
       </c>
       <c r="X40" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Y40" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Z40" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA40" t="n">
         <v>6.3</v>
       </c>
       <c r="AB40" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AC40" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AD40" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AE40" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="AF40" t="n">
         <v>11.75</v>
@@ -5319,10 +5319,10 @@
         <v>25</v>
       </c>
       <c r="AI40" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ40" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41">
@@ -5357,27 +5357,27 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.8</v>
+        <v>1.72</v>
       </c>
       <c r="H41" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="I41" t="n">
-        <v>3.9</v>
+        <v>4.25</v>
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="M41" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="N41" t="n">
         <v>1.65</v>
       </c>
       <c r="O41" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr"/>
@@ -5391,28 +5391,28 @@
         <v>8.25</v>
       </c>
       <c r="U41" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="V41" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="W41" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="X41" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="Y41" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z41" t="n">
         <v>12</v>
       </c>
       <c r="AA41" t="n">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="AB41" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AC41" t="n">
         <v>55</v>
@@ -5421,22 +5421,22 @@
         <v>350</v>
       </c>
       <c r="AE41" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AF41" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG41" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AH41" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AI41" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AJ41" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42">
@@ -5480,10 +5480,10 @@
         <v>4.33</v>
       </c>
       <c r="J42" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K42" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L42" t="n">
         <v>1.36</v>
@@ -5492,10 +5492,10 @@
         <v>3</v>
       </c>
       <c r="N42" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O42" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="P42" t="n">
         <v>1.44</v>
@@ -5724,10 +5724,10 @@
         <v>6.25</v>
       </c>
       <c r="J44" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K44" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L44" t="n">
         <v>1.36</v>
@@ -5736,10 +5736,10 @@
         <v>3</v>
       </c>
       <c r="N44" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O44" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="P44" t="n">
         <v>1.44</v>
@@ -6557,13 +6557,13 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>2.13</v>
+        <v>2.15</v>
       </c>
       <c r="H51" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="I51" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="J51" t="n">
         <v>1.11</v>
@@ -6575,76 +6575,76 @@
         <v>1.57</v>
       </c>
       <c r="M51" t="n">
-        <v>2.26</v>
+        <v>2.12</v>
       </c>
       <c r="N51" t="n">
-        <v>2.7</v>
+        <v>2.62</v>
       </c>
       <c r="O51" t="n">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="P51" t="n">
-        <v>1.63</v>
+        <v>1.6</v>
       </c>
       <c r="Q51" t="n">
-        <v>2.17</v>
+        <v>2.05</v>
       </c>
       <c r="R51" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="S51" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="T51" t="n">
-        <v>4.2</v>
+        <v>5.2</v>
       </c>
       <c r="U51" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="V51" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="W51" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="X51" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="Y51" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="Z51" t="n">
-        <v>4.9</v>
+        <v>5.9</v>
       </c>
       <c r="AA51" t="n">
-        <v>5</v>
+        <v>6.2</v>
       </c>
       <c r="AB51" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AC51" t="n">
-        <v>101</v>
+        <v>175</v>
       </c>
       <c r="AD51" t="n">
         <v>101</v>
       </c>
       <c r="AE51" t="n">
-        <v>5.6</v>
+        <v>7</v>
       </c>
       <c r="AF51" t="n">
-        <v>12</v>
+        <v>15.5</v>
       </c>
       <c r="AG51" t="n">
-        <v>11</v>
+        <v>13.5</v>
       </c>
       <c r="AH51" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AI51" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="AJ51" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="52">
@@ -7360,10 +7360,10 @@
         <v>7.5</v>
       </c>
       <c r="J58" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K58" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L58" t="n">
         <v>1.29</v>
@@ -8125,13 +8125,13 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="H65" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I65" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J65" t="n">
         <v>1.05</v>
@@ -8146,10 +8146,10 @@
         <v>3.5</v>
       </c>
       <c r="N65" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="O65" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="P65" t="n">
         <v>1.36</v>
@@ -8173,7 +8173,7 @@
         <v>8.5</v>
       </c>
       <c r="W65" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X65" t="n">
         <v>15</v>
@@ -8182,7 +8182,7 @@
         <v>26</v>
       </c>
       <c r="Z65" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA65" t="n">
         <v>7</v>
@@ -8209,7 +8209,7 @@
         <v>51</v>
       </c>
       <c r="AI65" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ65" t="n">
         <v>41</v>
@@ -8369,10 +8369,10 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="H67" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="I67" t="n">
         <v>7</v>
@@ -8384,16 +8384,16 @@
         <v>15</v>
       </c>
       <c r="L67" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="M67" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="N67" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="O67" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="P67" t="n">
         <v>1.29</v>
@@ -8456,7 +8456,7 @@
         <v>51</v>
       </c>
       <c r="AJ67" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="68">
@@ -8491,13 +8491,13 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H68" t="n">
         <v>3.6</v>
       </c>
       <c r="I68" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J68" t="n">
         <v>1.05</v>
@@ -8518,10 +8518,10 @@
         <v>1.88</v>
       </c>
       <c r="P68" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q68" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R68" t="n">
         <v>1.8</v>
@@ -8539,7 +8539,7 @@
         <v>9</v>
       </c>
       <c r="W68" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="X68" t="n">
         <v>17</v>
@@ -8548,7 +8548,7 @@
         <v>26</v>
       </c>
       <c r="Z68" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA68" t="n">
         <v>7</v>
@@ -8857,13 +8857,13 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="H71" t="n">
         <v>3.6</v>
       </c>
       <c r="I71" t="n">
-        <v>2.55</v>
+        <v>2.63</v>
       </c>
       <c r="J71" t="n">
         <v>1.03</v>
@@ -8872,10 +8872,10 @@
         <v>17</v>
       </c>
       <c r="L71" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="M71" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="N71" t="n">
         <v>1.53</v>
@@ -8890,10 +8890,10 @@
         <v>3.75</v>
       </c>
       <c r="R71" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="S71" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="T71" t="n">
         <v>12</v>
@@ -8914,7 +8914,7 @@
         <v>21</v>
       </c>
       <c r="Z71" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA71" t="n">
         <v>7.5</v>
@@ -8935,10 +8935,10 @@
         <v>17</v>
       </c>
       <c r="AG71" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH71" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI71" t="n">
         <v>19</v>
@@ -9101,13 +9101,13 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="H73" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I73" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="J73" t="n">
         <v>1.04</v>
@@ -9128,31 +9128,31 @@
         <v>2.05</v>
       </c>
       <c r="P73" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="Q73" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="R73" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S73" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="T73" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="U73" t="n">
-        <v>10.75</v>
+        <v>10.25</v>
       </c>
       <c r="V73" t="n">
         <v>8.5</v>
       </c>
       <c r="W73" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="X73" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Y73" t="n">
         <v>22</v>
@@ -9161,25 +9161,25 @@
         <v>8.25</v>
       </c>
       <c r="AA73" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AB73" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AC73" t="n">
         <v>50</v>
       </c>
       <c r="AD73" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AE73" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AF73" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AG73" t="n">
         <v>11.75</v>
-      </c>
-      <c r="AF73" t="n">
-        <v>19</v>
-      </c>
-      <c r="AG73" t="n">
-        <v>11.5</v>
       </c>
       <c r="AH73" t="n">
         <v>45</v>

--- a/Jogos_da_Semana_FlashScore_2025-05-05.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-05.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ73"/>
+  <dimension ref="A1:AJ74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -647,13 +647,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="H2" t="n">
         <v>3.4</v>
       </c>
       <c r="I2" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="J2" t="n">
         <v>1.06</v>
@@ -668,10 +668,10 @@
         <v>3.5</v>
       </c>
       <c r="N2" t="n">
-        <v>2</v>
+        <v>2.01</v>
       </c>
       <c r="O2" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="P2" t="n">
         <v>1.4</v>
@@ -686,19 +686,19 @@
         <v>2</v>
       </c>
       <c r="T2" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="U2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V2" t="n">
         <v>10</v>
       </c>
       <c r="W2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y2" t="n">
         <v>29</v>
@@ -716,10 +716,10 @@
         <v>51</v>
       </c>
       <c r="AD2" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AE2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF2" t="n">
         <v>19</v>
@@ -734,7 +734,7 @@
         <v>29</v>
       </c>
       <c r="AJ2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3">
@@ -769,13 +769,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="H3" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I3" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="J3" t="n">
         <v>1.05</v>
@@ -1257,19 +1257,19 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="H7" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="I7" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="J7" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="K7" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="L7" t="n">
         <v>1.73</v>
@@ -1284,28 +1284,28 @@
         <v>1.3</v>
       </c>
       <c r="P7" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="R7" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="S7" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T7" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="U7" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="V7" t="n">
         <v>11</v>
       </c>
       <c r="W7" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="X7" t="n">
         <v>26</v>
@@ -1314,7 +1314,7 @@
         <v>51</v>
       </c>
       <c r="Z7" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AA7" t="n">
         <v>6</v>
@@ -1329,13 +1329,13 @@
         <v>101</v>
       </c>
       <c r="AE7" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AF7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG7" t="n">
         <v>19</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>17</v>
       </c>
       <c r="AH7" t="n">
         <v>51</v>
@@ -1501,19 +1501,19 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="H9" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I9" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="J9" t="n">
         <v>1.06</v>
       </c>
       <c r="K9" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="L9" t="n">
         <v>1.33</v>
@@ -1534,16 +1534,16 @@
         <v>2.75</v>
       </c>
       <c r="R9" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="S9" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="T9" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="U9" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="V9" t="n">
         <v>8.5</v>
@@ -1561,7 +1561,7 @@
         <v>9.5</v>
       </c>
       <c r="AA9" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB9" t="n">
         <v>17</v>
@@ -1570,7 +1570,7 @@
         <v>51</v>
       </c>
       <c r="AD9" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AE9" t="n">
         <v>11</v>
@@ -2347,13 +2347,13 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="H16" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I16" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="J16" t="n">
         <v>1.03</v>
@@ -2389,7 +2389,7 @@
         <v>13</v>
       </c>
       <c r="U16" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="V16" t="n">
         <v>12</v>
@@ -2419,16 +2419,16 @@
         <v>151</v>
       </c>
       <c r="AE16" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG16" t="n">
         <v>9</v>
       </c>
-      <c r="AF16" t="n">
-        <v>10</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>8.5</v>
-      </c>
       <c r="AH16" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI16" t="n">
         <v>15</v>
@@ -2469,13 +2469,13 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H17" t="n">
         <v>3.6</v>
       </c>
       <c r="I17" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J17" t="n">
         <v>1.04</v>
@@ -2502,22 +2502,22 @@
         <v>3.25</v>
       </c>
       <c r="R17" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S17" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="T17" t="n">
         <v>9</v>
       </c>
       <c r="U17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V17" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W17" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="X17" t="n">
         <v>15</v>
@@ -2591,13 +2591,13 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="H18" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="I18" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="J18" t="n">
         <v>1.02</v>
@@ -2636,7 +2636,7 @@
         <v>23</v>
       </c>
       <c r="V18" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W18" t="n">
         <v>41</v>
@@ -2672,7 +2672,7 @@
         <v>9</v>
       </c>
       <c r="AH18" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI18" t="n">
         <v>13</v>
@@ -2719,7 +2719,7 @@
         <v>4.75</v>
       </c>
       <c r="I19" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J19" t="n">
         <v>1.02</v>
@@ -2740,28 +2740,28 @@
         <v>2.6</v>
       </c>
       <c r="P19" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="Q19" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="R19" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="S19" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="T19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U19" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="V19" t="n">
         <v>8.5</v>
       </c>
       <c r="W19" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X19" t="n">
         <v>11</v>
@@ -2770,10 +2770,10 @@
         <v>19</v>
       </c>
       <c r="Z19" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA19" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB19" t="n">
         <v>15</v>
@@ -2785,13 +2785,13 @@
         <v>126</v>
       </c>
       <c r="AE19" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF19" t="n">
         <v>29</v>
       </c>
       <c r="AG19" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH19" t="n">
         <v>51</v>
@@ -2800,7 +2800,7 @@
         <v>34</v>
       </c>
       <c r="AJ19" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20">
@@ -2856,10 +2856,10 @@
         <v>4</v>
       </c>
       <c r="N20" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="O20" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="P20" t="n">
         <v>1.33</v>
@@ -2957,19 +2957,19 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="H21" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I21" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="J21" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K21" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L21" t="n">
         <v>1.2</v>
@@ -2978,25 +2978,25 @@
         <v>4.33</v>
       </c>
       <c r="N21" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="O21" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="P21" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="Q21" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="R21" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="S21" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="T21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="U21" t="n">
         <v>19</v>
@@ -3011,10 +3011,10 @@
         <v>23</v>
       </c>
       <c r="Y21" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z21" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA21" t="n">
         <v>7</v>
@@ -3026,19 +3026,19 @@
         <v>41</v>
       </c>
       <c r="AD21" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AE21" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AF21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG21" t="n">
         <v>9</v>
       </c>
       <c r="AH21" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI21" t="n">
         <v>15</v>
@@ -3555,45 +3555,45 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="H26" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I26" t="n">
-        <v>2.67</v>
+        <v>2.8</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="M26" t="n">
-        <v>2.4</v>
+        <v>2.32</v>
       </c>
       <c r="N26" t="n">
-        <v>2.27</v>
+        <v>2.37</v>
       </c>
       <c r="O26" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="P26" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.22</v>
+        <v>2.15</v>
       </c>
       <c r="R26" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="S26" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="T26" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="U26" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="V26" t="n">
         <v>10.25</v>
@@ -3608,37 +3608,37 @@
         <v>45</v>
       </c>
       <c r="Z26" t="n">
-        <v>7.2</v>
+        <v>6.7</v>
       </c>
       <c r="AA26" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AB26" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AC26" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AD26" t="n">
         <v>101</v>
       </c>
       <c r="AE26" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AF26" t="n">
-        <v>11.75</v>
+        <v>12.5</v>
       </c>
       <c r="AG26" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AH26" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI26" t="n">
         <v>30</v>
       </c>
-      <c r="AI26" t="n">
-        <v>27</v>
-      </c>
       <c r="AJ26" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27">
@@ -3673,13 +3673,13 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="H27" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="I27" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
@@ -3693,28 +3693,28 @@
         <v>1.78</v>
       </c>
       <c r="O27" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="P27" t="n">
         <v>1.38</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="R27" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="S27" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="T27" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="U27" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="V27" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="W27" t="n">
         <v>40</v>
@@ -3726,13 +3726,13 @@
         <v>35</v>
       </c>
       <c r="Z27" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AA27" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="AB27" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AC27" t="n">
         <v>60</v>
@@ -3741,19 +3741,19 @@
         <v>450</v>
       </c>
       <c r="AE27" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AF27" t="n">
-        <v>9.75</v>
+        <v>10.25</v>
       </c>
       <c r="AG27" t="n">
         <v>8.75</v>
       </c>
       <c r="AH27" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AI27" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AJ27" t="n">
         <v>26</v>
@@ -3814,19 +3814,19 @@
         <v>1.83</v>
       </c>
       <c r="P28" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="Q28" t="n">
         <v>2.55</v>
       </c>
       <c r="R28" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="S28" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="T28" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="U28" t="n">
         <v>8.75</v>
@@ -3835,7 +3835,7 @@
         <v>7.8</v>
       </c>
       <c r="W28" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="X28" t="n">
         <v>13</v>
@@ -3847,10 +3847,10 @@
         <v>9.75</v>
       </c>
       <c r="AA28" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AB28" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AC28" t="n">
         <v>60</v>
@@ -3859,10 +3859,10 @@
         <v>450</v>
       </c>
       <c r="AE28" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AF28" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AG28" t="n">
         <v>15</v>
@@ -3912,10 +3912,10 @@
         <v>3.55</v>
       </c>
       <c r="H29" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="I29" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
@@ -3934,10 +3934,10 @@
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="S29" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="T29" t="n">
         <v>12.5</v>
@@ -3952,43 +3952,43 @@
         <v>50</v>
       </c>
       <c r="X29" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Y29" t="n">
         <v>32</v>
       </c>
       <c r="Z29" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AA29" t="n">
-        <v>7</v>
+        <v>7.3</v>
       </c>
       <c r="AB29" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AC29" t="n">
         <v>50</v>
       </c>
       <c r="AD29" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AE29" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AF29" t="n">
-        <v>10.25</v>
+        <v>9.75</v>
       </c>
       <c r="AG29" t="n">
         <v>8.25</v>
       </c>
       <c r="AH29" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI29" t="n">
         <v>14</v>
       </c>
       <c r="AJ29" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30">
@@ -4267,25 +4267,25 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="H32" t="n">
-        <v>2.82</v>
+        <v>2.9</v>
       </c>
       <c r="I32" t="n">
-        <v>2.22</v>
+        <v>2.12</v>
       </c>
       <c r="J32" t="n">
         <v>1.09</v>
       </c>
       <c r="K32" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="L32" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="M32" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="N32" t="n">
         <v>2.12</v>
@@ -4303,31 +4303,31 @@
         <v>1.8</v>
       </c>
       <c r="S32" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="T32" t="n">
-        <v>9.25</v>
+        <v>10</v>
       </c>
       <c r="U32" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="V32" t="n">
         <v>12</v>
       </c>
       <c r="W32" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="X32" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y32" t="n">
         <v>40</v>
       </c>
       <c r="Z32" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AA32" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="AB32" t="n">
         <v>13.5</v>
@@ -4339,22 +4339,22 @@
         <v>600</v>
       </c>
       <c r="AE32" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="AF32" t="n">
-        <v>10.75</v>
+        <v>9.75</v>
       </c>
       <c r="AG32" t="n">
         <v>8.5</v>
       </c>
       <c r="AH32" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI32" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AJ32" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33">
@@ -4389,13 +4389,13 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="H33" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="I33" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="J33" t="n">
         <v>1.1</v>
@@ -4404,7 +4404,7 @@
         <v>5.8</v>
       </c>
       <c r="L33" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="M33" t="n">
         <v>2.57</v>
@@ -4416,13 +4416,13 @@
         <v>1.55</v>
       </c>
       <c r="P33" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="R33" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="S33" t="n">
         <v>1.75</v>
@@ -4431,16 +4431,16 @@
         <v>8.75</v>
       </c>
       <c r="U33" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="V33" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="W33" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="X33" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Y33" t="n">
         <v>50</v>
@@ -4449,7 +4449,7 @@
         <v>5.8</v>
       </c>
       <c r="AA33" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AB33" t="n">
         <v>16</v>
@@ -4467,13 +4467,13 @@
         <v>9.25</v>
       </c>
       <c r="AG33" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AH33" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AI33" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AJ33" t="n">
         <v>35</v>
@@ -4636,10 +4636,10 @@
         <v>1.18</v>
       </c>
       <c r="H35" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="I35" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J35" t="n">
         <v>1.06</v>
@@ -4755,19 +4755,19 @@
         </is>
       </c>
       <c r="G36" t="n">
+        <v>7</v>
+      </c>
+      <c r="H36" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I36" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="K36" t="n">
         <v>7.5</v>
-      </c>
-      <c r="H36" t="n">
-        <v>4</v>
-      </c>
-      <c r="I36" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="K36" t="n">
-        <v>9</v>
       </c>
       <c r="L36" t="n">
         <v>1.4</v>
@@ -4776,10 +4776,10 @@
         <v>2.75</v>
       </c>
       <c r="N36" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="O36" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="P36" t="n">
         <v>1.44</v>
@@ -4806,13 +4806,13 @@
         <v>81</v>
       </c>
       <c r="X36" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="Y36" t="n">
         <v>67</v>
       </c>
       <c r="Z36" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AA36" t="n">
         <v>8</v>
@@ -4836,7 +4836,7 @@
         <v>9</v>
       </c>
       <c r="AH36" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI36" t="n">
         <v>15</v>
@@ -6203,10 +6203,10 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="H48" t="n">
-        <v>4.85</v>
+        <v>4.8</v>
       </c>
       <c r="I48" t="n">
         <v>1.28</v>
@@ -6228,10 +6228,10 @@
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr"/>
       <c r="R48" t="n">
-        <v>2.13</v>
+        <v>2.09</v>
       </c>
       <c r="S48" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="T48" t="n">
         <v>17.5</v>
@@ -6240,13 +6240,13 @@
         <v>45</v>
       </c>
       <c r="V48" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="W48" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="X48" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="Y48" t="n">
         <v>70</v>
@@ -6258,10 +6258,10 @@
         <v>8.5</v>
       </c>
       <c r="AB48" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AC48" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AD48" t="n">
         <v>600</v>
@@ -6270,13 +6270,13 @@
         <v>6</v>
       </c>
       <c r="AF48" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="AG48" t="n">
         <v>7.5</v>
       </c>
       <c r="AH48" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AI48" t="n">
         <v>9.25</v>
@@ -6450,16 +6450,16 @@
         <v>7</v>
       </c>
       <c r="L50" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="M50" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="N50" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="O50" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P50" t="n">
         <v>1.5</v>
@@ -6741,13 +6741,13 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H53" t="n">
         <v>3.3</v>
       </c>
       <c r="I53" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J53" t="n">
         <v>1.05</v>
@@ -6819,16 +6819,16 @@
         <v>17</v>
       </c>
       <c r="AG53" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH53" t="n">
         <v>34</v>
       </c>
       <c r="AI53" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ53" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="54">
@@ -6863,10 +6863,10 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="H54" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="I54" t="n">
         <v>2.5</v>
@@ -6875,7 +6875,7 @@
         <v>1.06</v>
       </c>
       <c r="K54" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="L54" t="n">
         <v>1.3</v>
@@ -6896,22 +6896,22 @@
         <v>2.75</v>
       </c>
       <c r="R54" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="S54" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="T54" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U54" t="n">
         <v>13</v>
       </c>
       <c r="V54" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W54" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="X54" t="n">
         <v>21</v>
@@ -6920,19 +6920,19 @@
         <v>29</v>
       </c>
       <c r="Z54" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA54" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB54" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC54" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD54" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AE54" t="n">
         <v>8.5</v>
@@ -6956,7 +6956,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>hvoB9lGG</t>
+          <t>bH7xQ90c</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -6966,7 +6966,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>16:15</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -6976,64 +6976,64 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>AFS</t>
+          <t>Rio Ave</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Boavista</t>
+          <t>Estrela</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="H55" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="I55" t="n">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="J55" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="K55" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L55" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="M55" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="N55" t="n">
-        <v>2.2</v>
+        <v>2.03</v>
       </c>
       <c r="O55" t="n">
-        <v>1.65</v>
+        <v>1.83</v>
       </c>
       <c r="P55" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q55" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R55" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="S55" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="T55" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U55" t="n">
+        <v>11</v>
+      </c>
+      <c r="V55" t="n">
         <v>9.5</v>
       </c>
-      <c r="V55" t="n">
-        <v>9</v>
-      </c>
       <c r="W55" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X55" t="n">
         <v>19</v>
@@ -7042,10 +7042,10 @@
         <v>29</v>
       </c>
       <c r="Z55" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="AA55" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB55" t="n">
         <v>15</v>
@@ -7054,31 +7054,31 @@
         <v>51</v>
       </c>
       <c r="AD55" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AE55" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF55" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG55" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AH55" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI55" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AJ55" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>4lqtAViU</t>
+          <t>hvoB9lGG</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -7088,119 +7088,119 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>16:15</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL 2</t>
+          <t>PORTUGAL - LIGA PORTUGAL</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Penafiel</t>
+          <t>AFS</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Torreense</t>
+          <t>Boavista</t>
         </is>
       </c>
       <c r="G56" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="H56" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J56" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="K56" t="n">
+        <v>9</v>
+      </c>
+      <c r="L56" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M56" t="n">
         <v>3</v>
       </c>
-      <c r="H56" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I56" t="n">
+      <c r="N56" t="n">
         <v>2.2</v>
       </c>
-      <c r="J56" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="K56" t="n">
-        <v>11</v>
-      </c>
-      <c r="L56" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="M56" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="N56" t="n">
-        <v>1.95</v>
-      </c>
       <c r="O56" t="n">
-        <v>1.9</v>
+        <v>1.65</v>
       </c>
       <c r="P56" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="Q56" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="R56" t="n">
-        <v>1.73</v>
+        <v>1.91</v>
       </c>
       <c r="S56" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="T56" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="U56" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>9</v>
+      </c>
+      <c r="W56" t="n">
+        <v>19</v>
+      </c>
+      <c r="X56" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB56" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC56" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>301</v>
+      </c>
+      <c r="AE56" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AF56" t="n">
         <v>17</v>
       </c>
-      <c r="V56" t="n">
-        <v>12</v>
-      </c>
-      <c r="W56" t="n">
-        <v>34</v>
-      </c>
-      <c r="X56" t="n">
-        <v>23</v>
-      </c>
-      <c r="Y56" t="n">
-        <v>34</v>
-      </c>
-      <c r="Z56" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA56" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AB56" t="n">
+      <c r="AG56" t="n">
         <v>13</v>
       </c>
-      <c r="AC56" t="n">
+      <c r="AH56" t="n">
         <v>41</v>
       </c>
-      <c r="AD56" t="n">
-        <v>201</v>
-      </c>
-      <c r="AE56" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AF56" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG56" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AH56" t="n">
-        <v>21</v>
-      </c>
       <c r="AI56" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AJ56" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>OSh2TlfL</t>
+          <t>4lqtAViU</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -7210,119 +7210,119 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>ROMANIA - SUPERLIGA</t>
+          <t>PORTUGAL - LIGA PORTUGAL 2</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>UTA Arad</t>
+          <t>Penafiel</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Petrolul</t>
+          <t>Torreense</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2.35</v>
+        <v>3</v>
       </c>
       <c r="H57" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I57" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="J57" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K57" t="n">
+        <v>11</v>
+      </c>
+      <c r="L57" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M57" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="N57" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="O57" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="P57" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Q57" t="n">
         <v>3</v>
       </c>
-      <c r="I57" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="K57" t="n">
-        <v>7</v>
-      </c>
-      <c r="L57" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="M57" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="N57" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="O57" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P57" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="Q57" t="n">
-        <v>2.38</v>
-      </c>
       <c r="R57" t="n">
-        <v>2.1</v>
+        <v>1.73</v>
       </c>
       <c r="S57" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="T57" t="n">
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="U57" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="V57" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="W57" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="X57" t="n">
         <v>23</v>
       </c>
       <c r="Y57" t="n">
+        <v>34</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB57" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC57" t="n">
         <v>41</v>
       </c>
-      <c r="Z57" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AA57" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB57" t="n">
+      <c r="AD57" t="n">
+        <v>201</v>
+      </c>
+      <c r="AE57" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AF57" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG57" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH57" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI57" t="n">
         <v>19</v>
       </c>
-      <c r="AC57" t="n">
-        <v>67</v>
-      </c>
-      <c r="AD57" t="n">
-        <v>101</v>
-      </c>
-      <c r="AE57" t="n">
-        <v>8</v>
-      </c>
-      <c r="AF57" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG57" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH57" t="n">
-        <v>34</v>
-      </c>
-      <c r="AI57" t="n">
-        <v>29</v>
-      </c>
       <c r="AJ57" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>zXwCFurB</t>
+          <t>OSh2TlfL</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -7332,7 +7332,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -7342,109 +7342,109 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>FCSB</t>
+          <t>UTA Arad</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Din. Bucuresti</t>
+          <t>Petrolul</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.42</v>
+        <v>2.25</v>
       </c>
       <c r="H58" t="n">
-        <v>4.33</v>
+        <v>3</v>
       </c>
       <c r="I58" t="n">
-        <v>7.5</v>
+        <v>3.4</v>
       </c>
       <c r="J58" t="n">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="K58" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="L58" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="M58" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="N58" t="n">
-        <v>1.95</v>
+        <v>2.5</v>
       </c>
       <c r="O58" t="n">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="P58" t="n">
-        <v>1.36</v>
+        <v>1.53</v>
       </c>
       <c r="Q58" t="n">
-        <v>3</v>
+        <v>2.38</v>
       </c>
       <c r="R58" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S58" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="T58" t="n">
         <v>6</v>
       </c>
       <c r="U58" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>10</v>
+      </c>
+      <c r="W58" t="n">
+        <v>21</v>
+      </c>
+      <c r="X58" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>41</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AA58" t="n">
         <v>6</v>
       </c>
-      <c r="V58" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="W58" t="n">
-        <v>9</v>
-      </c>
-      <c r="X58" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y58" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z58" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA58" t="n">
-        <v>8.5</v>
-      </c>
       <c r="AB58" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC58" t="n">
         <v>67</v>
       </c>
       <c r="AD58" t="n">
-        <v>1250</v>
+        <v>101</v>
       </c>
       <c r="AE58" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="AF58" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG58" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH58" t="n">
         <v>41</v>
       </c>
-      <c r="AG58" t="n">
-        <v>23</v>
-      </c>
-      <c r="AH58" t="n">
-        <v>81</v>
-      </c>
       <c r="AI58" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AJ58" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>tbIeCrWH</t>
+          <t>zXwCFurB</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -7454,119 +7454,119 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>ROMANIA - LIGA 2</t>
+          <t>ROMANIA - SUPERLIGA</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Csikszereda M. Ciuc</t>
+          <t>FCSB</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Metaloglobus Bucharest</t>
+          <t>Din. Bucuresti</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.88</v>
+        <v>1.4</v>
       </c>
       <c r="H59" t="n">
-        <v>3.45</v>
+        <v>4.5</v>
       </c>
       <c r="I59" t="n">
-        <v>4.05</v>
+        <v>8</v>
       </c>
       <c r="J59" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K59" t="n">
-        <v>7.9</v>
+        <v>11</v>
       </c>
       <c r="L59" t="n">
         <v>1.29</v>
       </c>
       <c r="M59" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N59" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="O59" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="P59" t="n">
-        <v>1.42</v>
+        <v>1.36</v>
       </c>
       <c r="Q59" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R59" t="n">
-        <v>1.72</v>
+        <v>2.2</v>
       </c>
       <c r="S59" t="n">
-        <v>2.02</v>
+        <v>1.62</v>
       </c>
       <c r="T59" t="n">
-        <v>7.4</v>
+        <v>6</v>
       </c>
       <c r="U59" t="n">
+        <v>6</v>
+      </c>
+      <c r="V59" t="n">
+        <v>9</v>
+      </c>
+      <c r="W59" t="n">
+        <v>9</v>
+      </c>
+      <c r="X59" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>34</v>
+      </c>
+      <c r="Z59" t="n">
         <v>10</v>
       </c>
-      <c r="V59" t="n">
+      <c r="AA59" t="n">
         <v>8.5</v>
       </c>
-      <c r="W59" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="X59" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y59" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z59" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="AA59" t="n">
-        <v>7</v>
-      </c>
       <c r="AB59" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AC59" t="n">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="AD59" t="n">
-        <v>500</v>
+        <v>1250</v>
       </c>
       <c r="AE59" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AF59" t="n">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="AG59" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="AH59" t="n">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="AI59" t="n">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="AJ59" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>ERpXo4T7</t>
+          <t>tbIeCrWH</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -7576,59 +7576,119 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>RUSSIA - PREMIER LEAGUE</t>
+          <t>ROMANIA - LIGA 2</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Krylya Sovetov</t>
+          <t>Csikszereda M. Ciuc</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Dynamo Moscow</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr"/>
-      <c r="H60" t="inlineStr"/>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="inlineStr"/>
-      <c r="O60" t="inlineStr"/>
-      <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
-      <c r="S60" t="inlineStr"/>
-      <c r="T60" t="inlineStr"/>
-      <c r="U60" t="inlineStr"/>
-      <c r="V60" t="inlineStr"/>
-      <c r="W60" t="inlineStr"/>
-      <c r="X60" t="inlineStr"/>
-      <c r="Y60" t="inlineStr"/>
-      <c r="Z60" t="inlineStr"/>
-      <c r="AA60" t="inlineStr"/>
-      <c r="AB60" t="inlineStr"/>
-      <c r="AC60" t="inlineStr"/>
-      <c r="AD60" t="inlineStr"/>
-      <c r="AE60" t="inlineStr"/>
-      <c r="AF60" t="inlineStr"/>
-      <c r="AG60" t="inlineStr"/>
-      <c r="AH60" t="inlineStr"/>
-      <c r="AI60" t="inlineStr"/>
-      <c r="AJ60" t="inlineStr"/>
+          <t>Metaloglobus Bucharest</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="H60" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="I60" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="K60" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="L60" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M60" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="N60" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="O60" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="P60" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R60" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="S60" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="T60" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="U60" t="n">
+        <v>10</v>
+      </c>
+      <c r="V60" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W60" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="X60" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB60" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC60" t="n">
+        <v>70</v>
+      </c>
+      <c r="AD60" t="n">
+        <v>500</v>
+      </c>
+      <c r="AE60" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF60" t="n">
+        <v>24</v>
+      </c>
+      <c r="AG60" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH60" t="n">
+        <v>70</v>
+      </c>
+      <c r="AI60" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ60" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>f7DKQhn3</t>
+          <t>ERpXo4T7</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -7638,115 +7698,59 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - DIVISION 1</t>
+          <t>RUSSIA - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Al Ain</t>
+          <t>Krylya Sovetov</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Jeddah</t>
-        </is>
-      </c>
-      <c r="G61" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="H61" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="I61" t="n">
-        <v>3.1</v>
-      </c>
+          <t>Dynamo Moscow</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="M61" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="N61" t="n">
-        <v>2</v>
-      </c>
-      <c r="O61" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="P61" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="Q61" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R61" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S61" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="T61" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="U61" t="n">
-        <v>11</v>
-      </c>
-      <c r="V61" t="n">
-        <v>9</v>
-      </c>
-      <c r="W61" t="n">
-        <v>23</v>
-      </c>
-      <c r="X61" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="Y61" t="n">
-        <v>30</v>
-      </c>
-      <c r="Z61" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AA61" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AB61" t="n">
-        <v>14</v>
-      </c>
-      <c r="AC61" t="n">
-        <v>70</v>
-      </c>
-      <c r="AD61" t="n">
-        <v>600</v>
-      </c>
-      <c r="AE61" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AF61" t="n">
-        <v>16</v>
-      </c>
-      <c r="AG61" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH61" t="n">
-        <v>40</v>
-      </c>
-      <c r="AI61" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ61" t="n">
-        <v>37</v>
-      </c>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="inlineStr"/>
+      <c r="O61" t="inlineStr"/>
+      <c r="P61" t="inlineStr"/>
+      <c r="Q61" t="inlineStr"/>
+      <c r="R61" t="inlineStr"/>
+      <c r="S61" t="inlineStr"/>
+      <c r="T61" t="inlineStr"/>
+      <c r="U61" t="inlineStr"/>
+      <c r="V61" t="inlineStr"/>
+      <c r="W61" t="inlineStr"/>
+      <c r="X61" t="inlineStr"/>
+      <c r="Y61" t="inlineStr"/>
+      <c r="Z61" t="inlineStr"/>
+      <c r="AA61" t="inlineStr"/>
+      <c r="AB61" t="inlineStr"/>
+      <c r="AC61" t="inlineStr"/>
+      <c r="AD61" t="inlineStr"/>
+      <c r="AE61" t="inlineStr"/>
+      <c r="AF61" t="inlineStr"/>
+      <c r="AG61" t="inlineStr"/>
+      <c r="AH61" t="inlineStr"/>
+      <c r="AI61" t="inlineStr"/>
+      <c r="AJ61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2XGSOWGF</t>
+          <t>f7DKQhn3</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -7756,7 +7760,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>13:10</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -7766,101 +7770,105 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Al Batin</t>
+          <t>Al Ain</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Al Adalah</t>
+          <t>Jeddah</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>3.3</v>
+        <v>2.27</v>
       </c>
       <c r="H62" t="n">
-        <v>3.4</v>
+        <v>3.05</v>
       </c>
       <c r="I62" t="n">
-        <v>2.02</v>
+        <v>3.1</v>
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
-        <v>1.23</v>
+        <v>1.34</v>
       </c>
       <c r="M62" t="n">
-        <v>3.35</v>
+        <v>2.75</v>
       </c>
       <c r="N62" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="O62" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr"/>
+        <v>1.65</v>
+      </c>
+      <c r="P62" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>2.5</v>
+      </c>
       <c r="R62" t="n">
-        <v>1.6</v>
+        <v>1.75</v>
       </c>
       <c r="S62" t="n">
-        <v>2.07</v>
+        <v>1.85</v>
       </c>
       <c r="T62" t="n">
-        <v>11.75</v>
+        <v>7.2</v>
       </c>
       <c r="U62" t="n">
+        <v>11</v>
+      </c>
+      <c r="V62" t="n">
+        <v>9</v>
+      </c>
+      <c r="W62" t="n">
+        <v>23</v>
+      </c>
+      <c r="X62" t="n">
         <v>19.5</v>
-      </c>
-      <c r="V62" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="W62" t="n">
-        <v>45</v>
-      </c>
-      <c r="X62" t="n">
-        <v>27</v>
       </c>
       <c r="Y62" t="n">
         <v>30</v>
       </c>
       <c r="Z62" t="n">
-        <v>11.5</v>
+        <v>8.25</v>
       </c>
       <c r="AA62" t="n">
-        <v>6.7</v>
+        <v>5.9</v>
       </c>
       <c r="AB62" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="AC62" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="AD62" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="AE62" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="AF62" t="n">
-        <v>10.5</v>
+        <v>16</v>
       </c>
       <c r="AG62" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="AH62" t="n">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="AI62" t="n">
-        <v>15.5</v>
+        <v>29</v>
       </c>
       <c r="AJ62" t="n">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>On5yNAoS</t>
+          <t>2XGSOWGF</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -7870,7 +7878,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>13:50</t>
+          <t>13:10</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -7880,101 +7888,101 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Neom SC</t>
+          <t>Al Batin</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Al-Faisaly</t>
+          <t>Al Adalah</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.45</v>
+        <v>3.3</v>
       </c>
       <c r="H63" t="n">
-        <v>4.35</v>
+        <v>3.4</v>
       </c>
       <c r="I63" t="n">
-        <v>5.9</v>
+        <v>2.02</v>
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="M63" t="n">
-        <v>3.6</v>
+        <v>3.35</v>
       </c>
       <c r="N63" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="O63" t="n">
-        <v>2.02</v>
+        <v>1.91</v>
       </c>
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr"/>
       <c r="R63" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="S63" t="n">
-        <v>1.82</v>
+        <v>2.07</v>
       </c>
       <c r="T63" t="n">
-        <v>7.5</v>
+        <v>11.75</v>
       </c>
       <c r="U63" t="n">
-        <v>7.1</v>
+        <v>19.5</v>
       </c>
       <c r="V63" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="W63" t="n">
+        <v>45</v>
+      </c>
+      <c r="X63" t="n">
+        <v>27</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>30</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AA63" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AB63" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC63" t="n">
+        <v>50</v>
+      </c>
+      <c r="AD63" t="n">
+        <v>350</v>
+      </c>
+      <c r="AE63" t="n">
         <v>8.25</v>
       </c>
-      <c r="W63" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="X63" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="Y63" t="n">
-        <v>25</v>
-      </c>
-      <c r="Z63" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA63" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AB63" t="n">
-        <v>18</v>
-      </c>
-      <c r="AC63" t="n">
-        <v>80</v>
-      </c>
-      <c r="AD63" t="n">
-        <v>600</v>
-      </c>
-      <c r="AE63" t="n">
-        <v>17</v>
-      </c>
       <c r="AF63" t="n">
-        <v>37</v>
+        <v>10.5</v>
       </c>
       <c r="AG63" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH63" t="n">
         <v>19</v>
       </c>
-      <c r="AH63" t="n">
-        <v>120</v>
-      </c>
       <c r="AI63" t="n">
-        <v>60</v>
+        <v>15.5</v>
       </c>
       <c r="AJ63" t="n">
-        <v>55</v>
+        <v>23</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>tftKNTcm</t>
+          <t>On5yNAoS</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -7984,119 +7992,111 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>04:30</t>
+          <t>13:50</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>SOUTH KOREA - K LEAGUE 1</t>
+          <t>SAUDI ARABIA - DIVISION 1</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Gwangju FC</t>
+          <t>Neom SC</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Gimcheon Sangmu</t>
+          <t>Al-Faisaly</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2.63</v>
+        <v>1.45</v>
       </c>
       <c r="H64" t="n">
-        <v>3.25</v>
+        <v>4.35</v>
       </c>
       <c r="I64" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="K64" t="n">
-        <v>9</v>
-      </c>
+        <v>5.9</v>
+      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
-        <v>1.36</v>
+        <v>1.2</v>
       </c>
       <c r="M64" t="n">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="N64" t="n">
-        <v>2.15</v>
+        <v>1.62</v>
       </c>
       <c r="O64" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="P64" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Q64" t="n">
-        <v>2.63</v>
-      </c>
+        <v>2.02</v>
+      </c>
+      <c r="P64" t="inlineStr"/>
+      <c r="Q64" t="inlineStr"/>
       <c r="R64" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S64" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="T64" t="n">
         <v>7.5</v>
       </c>
       <c r="U64" t="n">
-        <v>12</v>
+        <v>7.1</v>
       </c>
       <c r="V64" t="n">
-        <v>10</v>
+        <v>8.25</v>
       </c>
       <c r="W64" t="n">
-        <v>26</v>
+        <v>9.75</v>
       </c>
       <c r="X64" t="n">
-        <v>23</v>
+        <v>11.5</v>
       </c>
       <c r="Y64" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="Z64" t="n">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="AA64" t="n">
-        <v>6</v>
+        <v>8.75</v>
       </c>
       <c r="AB64" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC64" t="n">
+        <v>80</v>
+      </c>
+      <c r="AD64" t="n">
+        <v>600</v>
+      </c>
+      <c r="AE64" t="n">
         <v>17</v>
       </c>
-      <c r="AC64" t="n">
-        <v>51</v>
-      </c>
-      <c r="AD64" t="n">
-        <v>351</v>
-      </c>
-      <c r="AE64" t="n">
-        <v>7.5</v>
-      </c>
       <c r="AF64" t="n">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="AG64" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="AH64" t="n">
-        <v>26</v>
+        <v>120</v>
       </c>
       <c r="AI64" t="n">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="AJ64" t="n">
-        <v>34</v>
+        <v>55</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>lKqSL7Sa</t>
+          <t>tftKNTcm</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -8116,46 +8116,46 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Ulsan HD</t>
+          <t>Gwangju FC</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Pohang</t>
+          <t>Gimcheon Sangmu</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.75</v>
+        <v>2.63</v>
       </c>
       <c r="H65" t="n">
-        <v>3.7</v>
+        <v>3.25</v>
       </c>
       <c r="I65" t="n">
-        <v>4.33</v>
+        <v>2.6</v>
       </c>
       <c r="J65" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="K65" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L65" t="n">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="M65" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="N65" t="n">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="O65" t="n">
-        <v>1.9</v>
+        <v>1.67</v>
       </c>
       <c r="P65" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="Q65" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="R65" t="n">
         <v>1.83</v>
@@ -8164,28 +8164,28 @@
         <v>1.83</v>
       </c>
       <c r="T65" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="U65" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="V65" t="n">
+        <v>10</v>
+      </c>
+      <c r="W65" t="n">
+        <v>26</v>
+      </c>
+      <c r="X65" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>34</v>
+      </c>
+      <c r="Z65" t="n">
         <v>8.5</v>
       </c>
-      <c r="W65" t="n">
-        <v>15</v>
-      </c>
-      <c r="X65" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y65" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z65" t="n">
-        <v>10</v>
-      </c>
       <c r="AA65" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AB65" t="n">
         <v>17</v>
@@ -8194,31 +8194,31 @@
         <v>51</v>
       </c>
       <c r="AD65" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AE65" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AF65" t="n">
         <v>12</v>
       </c>
-      <c r="AF65" t="n">
+      <c r="AG65" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH65" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI65" t="n">
         <v>23</v>
       </c>
-      <c r="AG65" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH65" t="n">
-        <v>51</v>
-      </c>
-      <c r="AI65" t="n">
+      <c r="AJ65" t="n">
         <v>34</v>
-      </c>
-      <c r="AJ65" t="n">
-        <v>41</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Gx0Sp0cD</t>
+          <t>lKqSL7Sa</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -8228,68 +8228,68 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>04:30</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>SOUTH KOREA - K LEAGUE 1</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Castellon</t>
+          <t>Ulsan HD</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Gijon</t>
+          <t>Pohang</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="H66" t="n">
         <v>3.7</v>
       </c>
       <c r="I66" t="n">
-        <v>3.8</v>
+        <v>4.33</v>
       </c>
       <c r="J66" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K66" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L66" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="M66" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="N66" t="n">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="O66" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="P66" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Q66" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="R66" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="S66" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="T66" t="n">
+        <v>7</v>
+      </c>
+      <c r="U66" t="n">
         <v>8</v>
-      </c>
-      <c r="U66" t="n">
-        <v>9.5</v>
       </c>
       <c r="V66" t="n">
         <v>8.5</v>
@@ -8301,46 +8301,46 @@
         <v>15</v>
       </c>
       <c r="Y66" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Z66" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AA66" t="n">
         <v>7</v>
       </c>
       <c r="AB66" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC66" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD66" t="n">
+        <v>301</v>
+      </c>
+      <c r="AE66" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF66" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG66" t="n">
         <v>15</v>
       </c>
-      <c r="AC66" t="n">
+      <c r="AH66" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI66" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ66" t="n">
         <v>41</v>
-      </c>
-      <c r="AD66" t="n">
-        <v>201</v>
-      </c>
-      <c r="AE66" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF66" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG66" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH66" t="n">
-        <v>41</v>
-      </c>
-      <c r="AI66" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ66" t="n">
-        <v>34</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>dCFthTk4</t>
+          <t>Gx0Sp0cD</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -8350,119 +8350,119 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>SWEDEN - ALLSVENSKAN</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Malmo FF</t>
+          <t>Castellon</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Brommapojkarna</t>
+          <t>Gijon</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.38</v>
+        <v>1.85</v>
       </c>
       <c r="H67" t="n">
-        <v>5</v>
+        <v>3.7</v>
       </c>
       <c r="I67" t="n">
-        <v>7</v>
+        <v>3.8</v>
       </c>
       <c r="J67" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K67" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L67" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="M67" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="N67" t="n">
-        <v>1.62</v>
+        <v>1.8</v>
       </c>
       <c r="O67" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="P67" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="Q67" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="R67" t="n">
-        <v>1.91</v>
+        <v>1.73</v>
       </c>
       <c r="S67" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="T67" t="n">
         <v>8</v>
       </c>
       <c r="U67" t="n">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="V67" t="n">
         <v>8.5</v>
       </c>
       <c r="W67" t="n">
-        <v>9.5</v>
+        <v>15</v>
       </c>
       <c r="X67" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="Y67" t="n">
         <v>23</v>
       </c>
       <c r="Z67" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA67" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB67" t="n">
         <v>15</v>
       </c>
-      <c r="AA67" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AB67" t="n">
-        <v>19</v>
-      </c>
       <c r="AC67" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD67" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AE67" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AF67" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG67" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH67" t="n">
         <v>41</v>
       </c>
-      <c r="AG67" t="n">
-        <v>21</v>
-      </c>
-      <c r="AH67" t="n">
-        <v>81</v>
-      </c>
       <c r="AI67" t="n">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="AJ67" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>8jZoWoTp</t>
+          <t>dCFthTk4</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -8472,7 +8472,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>14:10</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -8482,46 +8482,46 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Elfsborg</t>
+          <t>Malmo FF</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>GAIS</t>
+          <t>Brommapojkarna</t>
         </is>
       </c>
       <c r="G68" t="n">
-        <v>2</v>
+        <v>1.42</v>
       </c>
       <c r="H68" t="n">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="I68" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="J68" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K68" t="n">
+        <v>15</v>
+      </c>
+      <c r="L68" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="M68" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="N68" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="O68" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="P68" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="Q68" t="n">
         <v>3.5</v>
-      </c>
-      <c r="J68" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="K68" t="n">
-        <v>11</v>
-      </c>
-      <c r="L68" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="M68" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="N68" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="O68" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="P68" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="Q68" t="n">
-        <v>3</v>
       </c>
       <c r="R68" t="n">
         <v>1.8</v>
@@ -8530,31 +8530,31 @@
         <v>1.95</v>
       </c>
       <c r="T68" t="n">
+        <v>8</v>
+      </c>
+      <c r="U68" t="n">
         <v>7.5</v>
       </c>
-      <c r="U68" t="n">
+      <c r="V68" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W68" t="n">
         <v>9.5</v>
       </c>
-      <c r="V68" t="n">
-        <v>9</v>
-      </c>
-      <c r="W68" t="n">
-        <v>17</v>
-      </c>
       <c r="X68" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="Y68" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z68" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AA68" t="n">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="AB68" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AC68" t="n">
         <v>51</v>
@@ -8563,28 +8563,28 @@
         <v>251</v>
       </c>
       <c r="AE68" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="AF68" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="AG68" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AH68" t="n">
+        <v>81</v>
+      </c>
+      <c r="AI68" t="n">
         <v>41</v>
       </c>
-      <c r="AI68" t="n">
-        <v>29</v>
-      </c>
       <c r="AJ68" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>lx5v9Sas</t>
+          <t>8jZoWoTp</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -8594,32 +8594,32 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>14:10</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>SWEDEN - SUPERETTAN</t>
+          <t>SWEDEN - ALLSVENSKAN</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Brage</t>
+          <t>Elfsborg</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Ostersund</t>
+          <t>GAIS</t>
         </is>
       </c>
       <c r="G69" t="n">
         <v>1.95</v>
       </c>
       <c r="H69" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I69" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="J69" t="n">
         <v>1.05</v>
@@ -8628,22 +8628,22 @@
         <v>11</v>
       </c>
       <c r="L69" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M69" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N69" t="n">
-        <v>2.03</v>
+        <v>1.98</v>
       </c>
       <c r="O69" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="P69" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q69" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R69" t="n">
         <v>1.8</v>
@@ -8652,28 +8652,28 @@
         <v>1.95</v>
       </c>
       <c r="T69" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="U69" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="V69" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W69" t="n">
         <v>17</v>
       </c>
       <c r="X69" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y69" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z69" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA69" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB69" t="n">
         <v>15</v>
@@ -8700,13 +8700,13 @@
         <v>29</v>
       </c>
       <c r="AJ69" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>z9eEL5qm</t>
+          <t>lx5v9Sas</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -8726,109 +8726,109 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Orebro</t>
+          <t>Brage</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Trelleborg</t>
+          <t>Ostersund</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2.55</v>
+        <v>1.91</v>
       </c>
       <c r="H70" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I70" t="n">
-        <v>2.55</v>
+        <v>3.9</v>
       </c>
       <c r="J70" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K70" t="n">
+        <v>10</v>
+      </c>
+      <c r="L70" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M70" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="N70" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="O70" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="P70" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R70" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S70" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="T70" t="n">
+        <v>7</v>
+      </c>
+      <c r="U70" t="n">
+        <v>9</v>
+      </c>
+      <c r="V70" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W70" t="n">
+        <v>17</v>
+      </c>
+      <c r="X70" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y70" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z70" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA70" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB70" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC70" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD70" t="n">
+        <v>251</v>
+      </c>
+      <c r="AE70" t="n">
         <v>11</v>
       </c>
-      <c r="L70" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="M70" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="N70" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="O70" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="P70" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="Q70" t="n">
-        <v>3</v>
-      </c>
-      <c r="R70" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S70" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="T70" t="n">
-        <v>9</v>
-      </c>
-      <c r="U70" t="n">
+      <c r="AF70" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG70" t="n">
         <v>13</v>
       </c>
-      <c r="V70" t="n">
-        <v>10</v>
-      </c>
-      <c r="W70" t="n">
-        <v>26</v>
-      </c>
-      <c r="X70" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y70" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z70" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA70" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB70" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC70" t="n">
+      <c r="AH70" t="n">
         <v>41</v>
       </c>
-      <c r="AD70" t="n">
-        <v>201</v>
-      </c>
-      <c r="AE70" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF70" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG70" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH70" t="n">
-        <v>26</v>
-      </c>
       <c r="AI70" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AJ70" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>GvkGa6qg</t>
+          <t>z9eEL5qm</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -8843,114 +8843,114 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>TURKEY - SUPER LIG</t>
+          <t>SWEDEN - SUPERETTAN</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Kasimpasa</t>
+          <t>Orebro</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Trabzonspor</t>
+          <t>Trelleborg</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="H71" t="n">
         <v>3.6</v>
       </c>
       <c r="I71" t="n">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="J71" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="K71" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="L71" t="n">
-        <v>1.14</v>
+        <v>1.29</v>
       </c>
       <c r="M71" t="n">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="N71" t="n">
-        <v>1.53</v>
+        <v>1.93</v>
       </c>
       <c r="O71" t="n">
-        <v>2.4</v>
+        <v>1.93</v>
       </c>
       <c r="P71" t="n">
-        <v>1.25</v>
+        <v>1.36</v>
       </c>
       <c r="Q71" t="n">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="R71" t="n">
-        <v>1.44</v>
+        <v>1.7</v>
       </c>
       <c r="S71" t="n">
-        <v>2.63</v>
+        <v>2.05</v>
       </c>
       <c r="T71" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="U71" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="V71" t="n">
         <v>10</v>
       </c>
       <c r="W71" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="X71" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="Y71" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z71" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA71" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB71" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC71" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD71" t="n">
+        <v>201</v>
+      </c>
+      <c r="AE71" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF71" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG71" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH71" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI71" t="n">
         <v>21</v>
       </c>
-      <c r="Z71" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA71" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AB71" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC71" t="n">
-        <v>34</v>
-      </c>
-      <c r="AD71" t="n">
-        <v>101</v>
-      </c>
-      <c r="AE71" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF71" t="n">
-        <v>17</v>
-      </c>
-      <c r="AG71" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH71" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI71" t="n">
-        <v>19</v>
-      </c>
       <c r="AJ71" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>UatUr7jS</t>
+          <t>GvkGa6qg</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -8960,119 +8960,119 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>11:05</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>UNITED ARAB EMIRATES - UAE LEAGUE</t>
+          <t>TURKEY - SUPER LIG</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Al Bataeh</t>
+          <t>Kasimpasa</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Bani Yas</t>
+          <t>Trabzonspor</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.91</v>
+        <v>2.3</v>
       </c>
       <c r="H72" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="I72" t="n">
-        <v>3.55</v>
+        <v>2.63</v>
       </c>
       <c r="J72" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="K72" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="L72" t="n">
-        <v>1.24</v>
+        <v>1.14</v>
       </c>
       <c r="M72" t="n">
-        <v>3.65</v>
+        <v>5.5</v>
       </c>
       <c r="N72" t="n">
-        <v>1.72</v>
+        <v>1.53</v>
       </c>
       <c r="O72" t="n">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="P72" t="n">
-        <v>1.35</v>
+        <v>1.25</v>
       </c>
       <c r="Q72" t="n">
-        <v>2.95</v>
+        <v>3.75</v>
       </c>
       <c r="R72" t="n">
-        <v>1.65</v>
+        <v>1.44</v>
       </c>
       <c r="S72" t="n">
-        <v>2.1</v>
+        <v>2.63</v>
       </c>
       <c r="T72" t="n">
-        <v>8.25</v>
+        <v>12</v>
       </c>
       <c r="U72" t="n">
-        <v>9.75</v>
+        <v>15</v>
       </c>
       <c r="V72" t="n">
-        <v>8.25</v>
+        <v>10</v>
       </c>
       <c r="W72" t="n">
-        <v>16.5</v>
+        <v>23</v>
       </c>
       <c r="X72" t="n">
-        <v>14.5</v>
+        <v>17</v>
       </c>
       <c r="Y72" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Z72" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="AA72" t="n">
-        <v>7.1</v>
+        <v>7.5</v>
       </c>
       <c r="AB72" t="n">
-        <v>13.5</v>
+        <v>11</v>
       </c>
       <c r="AC72" t="n">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="AD72" t="n">
-        <v>350</v>
+        <v>101</v>
       </c>
       <c r="AE72" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF72" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AG72" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH72" t="n">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="AI72" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="AJ72" t="n">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>YDdROoad</t>
+          <t>UatUr7jS</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -9082,7 +9082,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>13:45</t>
+          <t>11:05</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -9092,103 +9092,225 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Ajman</t>
+          <t>Al Bataeh</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Al Urooba</t>
+          <t>Bani Yas</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="H73" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="I73" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="J73" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K73" t="n">
+        <v>8</v>
+      </c>
+      <c r="L73" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="M73" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="N73" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="O73" t="n">
+        <v>2</v>
+      </c>
+      <c r="P73" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="R73" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S73" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T73" t="n">
         <v>8.25</v>
       </c>
-      <c r="L73" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="M73" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="N73" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="O73" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="P73" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="Q73" t="n">
-        <v>3</v>
-      </c>
-      <c r="R73" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S73" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="T73" t="n">
-        <v>8.75</v>
-      </c>
       <c r="U73" t="n">
-        <v>10.25</v>
+        <v>9.75</v>
       </c>
       <c r="V73" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="W73" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="X73" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Y73" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Z73" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AA73" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AB73" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AC73" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AD73" t="n">
         <v>350</v>
       </c>
       <c r="AE73" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF73" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG73" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH73" t="n">
+        <v>50</v>
+      </c>
+      <c r="AI73" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ73" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>YDdROoad</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>05/05/2025</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>13:45</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>UNITED ARAB EMIRATES - UAE LEAGUE</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Ajman</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Al Urooba</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H74" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I74" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="K74" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="L74" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="M74" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="N74" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="O74" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="P74" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>3</v>
+      </c>
+      <c r="R74" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S74" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="T74" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="U74" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="V74" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="W74" t="n">
+        <v>16</v>
+      </c>
+      <c r="X74" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Y74" t="n">
+        <v>22</v>
+      </c>
+      <c r="Z74" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AA74" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AB74" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC74" t="n">
+        <v>50</v>
+      </c>
+      <c r="AD74" t="n">
+        <v>350</v>
+      </c>
+      <c r="AE74" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF74" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG74" t="n">
         <v>12.5</v>
       </c>
-      <c r="AF73" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AG73" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AH73" t="n">
-        <v>45</v>
-      </c>
-      <c r="AI73" t="n">
-        <v>27</v>
-      </c>
-      <c r="AJ73" t="n">
+      <c r="AH74" t="n">
+        <v>55</v>
+      </c>
+      <c r="AI74" t="n">
         <v>30</v>
+      </c>
+      <c r="AJ74" t="n">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-05-05.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-05.xlsx
@@ -1510,10 +1510,10 @@
         <v>4.5</v>
       </c>
       <c r="J9" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K9" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="L9" t="n">
         <v>1.33</v>
@@ -1522,10 +1522,10 @@
         <v>3.4</v>
       </c>
       <c r="N9" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="O9" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="P9" t="n">
         <v>1.4</v>
@@ -1623,13 +1623,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H10" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I10" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="J10" t="n">
         <v>1.07</v>
@@ -1665,7 +1665,7 @@
         <v>9.5</v>
       </c>
       <c r="U10" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="V10" t="n">
         <v>12</v>
@@ -1680,7 +1680,7 @@
         <v>41</v>
       </c>
       <c r="Z10" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AA10" t="n">
         <v>6</v>
@@ -1701,7 +1701,7 @@
         <v>10</v>
       </c>
       <c r="AG10" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AH10" t="n">
         <v>21</v>
@@ -1745,7 +1745,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="H11" t="n">
         <v>3.1</v>
@@ -1775,7 +1775,7 @@
         <v>1.53</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="R11" t="n">
         <v>2.15</v>
@@ -3079,13 +3079,13 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H22" t="n">
         <v>2.7</v>
       </c>
       <c r="I22" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J22" t="n">
         <v>1.14</v>
@@ -3145,7 +3145,7 @@
         <v>19</v>
       </c>
       <c r="AC22" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AD22" t="n">
         <v>101</v>
@@ -3154,13 +3154,13 @@
         <v>9</v>
       </c>
       <c r="AF22" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG22" t="n">
         <v>17</v>
       </c>
       <c r="AH22" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI22" t="n">
         <v>41</v>
@@ -3558,84 +3558,88 @@
         <v>2.5</v>
       </c>
       <c r="H26" t="n">
-        <v>3</v>
+        <v>2.72</v>
       </c>
       <c r="I26" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+        <v>3.1</v>
+      </c>
+      <c r="J26" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="K26" t="n">
+        <v>5.6</v>
+      </c>
       <c r="L26" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="M26" t="n">
-        <v>2.32</v>
+        <v>2.25</v>
       </c>
       <c r="N26" t="n">
-        <v>2.37</v>
+        <v>2.42</v>
       </c>
       <c r="O26" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="P26" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="R26" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="S26" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="T26" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="U26" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="V26" t="n">
-        <v>10.25</v>
+        <v>9.75</v>
       </c>
       <c r="W26" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="X26" t="n">
         <v>25</v>
       </c>
       <c r="Y26" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="Z26" t="n">
-        <v>6.7</v>
+        <v>6</v>
       </c>
       <c r="AA26" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AB26" t="n">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="AC26" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AD26" t="n">
         <v>101</v>
       </c>
       <c r="AE26" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="AF26" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="AG26" t="n">
-        <v>11</v>
+        <v>11.75</v>
       </c>
       <c r="AH26" t="n">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="AI26" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AJ26" t="n">
         <v>50</v>
@@ -3673,13 +3677,13 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="H27" t="n">
         <v>3.45</v>
       </c>
       <c r="I27" t="n">
-        <v>2.07</v>
+        <v>2.15</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
@@ -3711,28 +3715,28 @@
         <v>10</v>
       </c>
       <c r="U27" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="V27" t="n">
-        <v>11.25</v>
+        <v>10.75</v>
       </c>
       <c r="W27" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="X27" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Y27" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Z27" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AA27" t="n">
         <v>6.7</v>
       </c>
       <c r="AB27" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AC27" t="n">
         <v>60</v>
@@ -3741,19 +3745,19 @@
         <v>450</v>
       </c>
       <c r="AE27" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AF27" t="n">
-        <v>10.25</v>
+        <v>10.75</v>
       </c>
       <c r="AG27" t="n">
         <v>8.75</v>
       </c>
       <c r="AH27" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AI27" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AJ27" t="n">
         <v>26</v>
@@ -3791,13 +3795,13 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="H28" t="n">
         <v>3.3</v>
       </c>
       <c r="I28" t="n">
-        <v>4.7</v>
+        <v>4.75</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
@@ -3820,10 +3824,10 @@
         <v>2.55</v>
       </c>
       <c r="R28" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="S28" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="T28" t="n">
         <v>7.3</v>
@@ -3835,7 +3839,7 @@
         <v>7.8</v>
       </c>
       <c r="W28" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="X28" t="n">
         <v>13</v>
@@ -3850,7 +3854,7 @@
         <v>6.5</v>
       </c>
       <c r="AB28" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AC28" t="n">
         <v>60</v>
@@ -3862,7 +3866,7 @@
         <v>13</v>
       </c>
       <c r="AF28" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AG28" t="n">
         <v>15</v>
@@ -3909,7 +3913,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="H29" t="n">
         <v>3.65</v>
@@ -3940,7 +3944,7 @@
         <v>2.07</v>
       </c>
       <c r="T29" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="U29" t="n">
         <v>21</v>
@@ -3955,16 +3959,16 @@
         <v>29</v>
       </c>
       <c r="Y29" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Z29" t="n">
         <v>13</v>
       </c>
       <c r="AA29" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="AB29" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC29" t="n">
         <v>50</v>
@@ -4029,13 +4033,13 @@
         <v>3.25</v>
       </c>
       <c r="I30" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J30" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K30" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L30" t="n">
         <v>1.25</v>
@@ -4074,7 +4078,7 @@
         <v>23</v>
       </c>
       <c r="X30" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y30" t="n">
         <v>23</v>
@@ -4098,13 +4102,13 @@
         <v>11</v>
       </c>
       <c r="AF30" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG30" t="n">
         <v>11</v>
       </c>
       <c r="AH30" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI30" t="n">
         <v>23</v>
@@ -4267,19 +4271,19 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="H32" t="n">
         <v>2.9</v>
       </c>
       <c r="I32" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="J32" t="n">
         <v>1.09</v>
       </c>
       <c r="K32" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="L32" t="n">
         <v>1.38</v>
@@ -4288,7 +4292,7 @@
         <v>2.82</v>
       </c>
       <c r="N32" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="O32" t="n">
         <v>1.65</v>
@@ -4303,13 +4307,13 @@
         <v>1.8</v>
       </c>
       <c r="S32" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="T32" t="n">
         <v>10</v>
       </c>
       <c r="U32" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V32" t="n">
         <v>12</v>
@@ -4318,13 +4322,13 @@
         <v>60</v>
       </c>
       <c r="X32" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Y32" t="n">
         <v>40</v>
       </c>
       <c r="Z32" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="AA32" t="n">
         <v>5.6</v>
@@ -4342,7 +4346,7 @@
         <v>6.6</v>
       </c>
       <c r="AF32" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AG32" t="n">
         <v>8.5</v>
@@ -5239,13 +5243,13 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.7</v>
+        <v>3.05</v>
       </c>
       <c r="H40" t="n">
         <v>3.25</v>
       </c>
       <c r="I40" t="n">
-        <v>2.42</v>
+        <v>2.2</v>
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
@@ -5253,73 +5257,73 @@
         <v>1.31</v>
       </c>
       <c r="M40" t="n">
-        <v>2.9</v>
+        <v>2.87</v>
       </c>
       <c r="N40" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="O40" t="n">
         <v>1.7</v>
       </c>
       <c r="P40" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.65</v>
+        <v>2.6</v>
       </c>
       <c r="R40" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="S40" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="T40" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U40" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="V40" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W40" t="n">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="X40" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="Y40" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Z40" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AA40" t="n">
         <v>6.3</v>
       </c>
       <c r="AB40" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AC40" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AD40" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AE40" t="n">
-        <v>7.9</v>
+        <v>7.4</v>
       </c>
       <c r="AF40" t="n">
-        <v>11.75</v>
+        <v>10.5</v>
       </c>
       <c r="AG40" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH40" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AI40" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="AJ40" t="n">
         <v>30</v>
@@ -5357,13 +5361,13 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="H41" t="n">
         <v>3.65</v>
       </c>
       <c r="I41" t="n">
-        <v>4.25</v>
+        <v>4.35</v>
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
@@ -5388,31 +5392,31 @@
         <v>2.02</v>
       </c>
       <c r="T41" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="U41" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="V41" t="n">
         <v>8</v>
       </c>
       <c r="W41" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="X41" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>22</v>
+      </c>
+      <c r="Z41" t="n">
         <v>12.5</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z41" t="n">
-        <v>12</v>
       </c>
       <c r="AA41" t="n">
         <v>7.3</v>
       </c>
       <c r="AB41" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AC41" t="n">
         <v>55</v>
@@ -5421,22 +5425,22 @@
         <v>350</v>
       </c>
       <c r="AE41" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AF41" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG41" t="n">
         <v>14</v>
       </c>
       <c r="AH41" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AI41" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AJ41" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42">
@@ -5724,13 +5728,13 @@
         <v>6.25</v>
       </c>
       <c r="J44" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="K44" t="n">
         <v>9</v>
       </c>
       <c r="L44" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M44" t="n">
         <v>3</v>
@@ -5846,13 +5850,13 @@
         <v>9.5</v>
       </c>
       <c r="J45" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K45" t="n">
         <v>13</v>
       </c>
       <c r="L45" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="M45" t="n">
         <v>4</v>
@@ -5968,13 +5972,13 @@
         <v>3.25</v>
       </c>
       <c r="J46" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="K46" t="n">
         <v>8</v>
       </c>
       <c r="L46" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="M46" t="n">
         <v>2.75</v>
@@ -6090,13 +6094,13 @@
         <v>2.8</v>
       </c>
       <c r="J47" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K47" t="n">
         <v>13</v>
       </c>
       <c r="L47" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="M47" t="n">
         <v>4.33</v>
@@ -6581,7 +6585,7 @@
         <v>2.62</v>
       </c>
       <c r="O51" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="P51" t="n">
         <v>1.6</v>
@@ -6875,7 +6879,7 @@
         <v>1.06</v>
       </c>
       <c r="K54" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="L54" t="n">
         <v>1.3</v>
@@ -6966,7 +6970,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -7595,13 +7599,13 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.88</v>
+        <v>1.7</v>
       </c>
       <c r="H60" t="n">
-        <v>3.45</v>
+        <v>3.7</v>
       </c>
       <c r="I60" t="n">
-        <v>4.05</v>
+        <v>4.8</v>
       </c>
       <c r="J60" t="n">
         <v>1.06</v>
@@ -7610,16 +7614,16 @@
         <v>7.9</v>
       </c>
       <c r="L60" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M60" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="N60" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="O60" t="n">
         <v>1.85</v>
-      </c>
-      <c r="O60" t="n">
-        <v>1.9</v>
       </c>
       <c r="P60" t="n">
         <v>1.42</v>
@@ -7628,61 +7632,61 @@
         <v>2.75</v>
       </c>
       <c r="R60" t="n">
-        <v>1.72</v>
+        <v>1.85</v>
       </c>
       <c r="S60" t="n">
-        <v>2.02</v>
+        <v>1.85</v>
       </c>
       <c r="T60" t="n">
-        <v>7.4</v>
+        <v>6.5</v>
       </c>
       <c r="U60" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="V60" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="W60" t="n">
-        <v>17.5</v>
+        <v>13.5</v>
       </c>
       <c r="X60" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Y60" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Z60" t="n">
         <v>7.9</v>
       </c>
       <c r="AA60" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB60" t="n">
-        <v>15</v>
+        <v>17.5</v>
       </c>
       <c r="AC60" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="AD60" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="AE60" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AF60" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="AG60" t="n">
-        <v>14</v>
+        <v>16.5</v>
       </c>
       <c r="AH60" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="AI60" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="AJ60" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="61">
@@ -7897,10 +7901,10 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="H63" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="I63" t="n">
         <v>2.02</v>
@@ -7917,27 +7921,27 @@
         <v>1.7</v>
       </c>
       <c r="O63" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr"/>
       <c r="R63" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S63" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="T63" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="U63" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="V63" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="W63" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="X63" t="n">
         <v>27</v>
@@ -7958,10 +7962,10 @@
         <v>50</v>
       </c>
       <c r="AD63" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="AE63" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AF63" t="n">
         <v>10.5</v>
@@ -8146,10 +8150,10 @@
         <v>3</v>
       </c>
       <c r="N65" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O65" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="P65" t="n">
         <v>1.44</v>
@@ -8268,10 +8272,10 @@
         <v>3.5</v>
       </c>
       <c r="N66" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="O66" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="P66" t="n">
         <v>1.36</v>
@@ -8491,7 +8495,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="H68" t="n">
         <v>4.75</v>
@@ -8503,7 +8507,7 @@
         <v>1.03</v>
       </c>
       <c r="K68" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L68" t="n">
         <v>1.18</v>
@@ -8512,10 +8516,10 @@
         <v>4.5</v>
       </c>
       <c r="N68" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="O68" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="P68" t="n">
         <v>1.29</v>
@@ -8539,7 +8543,7 @@
         <v>8.5</v>
       </c>
       <c r="W68" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="X68" t="n">
         <v>11</v>
@@ -8551,7 +8555,7 @@
         <v>15</v>
       </c>
       <c r="AA68" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB68" t="n">
         <v>19</v>
@@ -8572,7 +8576,7 @@
         <v>19</v>
       </c>
       <c r="AH68" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AI68" t="n">
         <v>41</v>
@@ -9223,19 +9227,19 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="H74" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I74" t="n">
         <v>3.75</v>
-      </c>
-      <c r="I74" t="n">
-        <v>3.7</v>
       </c>
       <c r="J74" t="n">
         <v>1.04</v>
       </c>
       <c r="K74" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="L74" t="n">
         <v>1.22</v>
@@ -9250,28 +9254,28 @@
         <v>2.1</v>
       </c>
       <c r="P74" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="Q74" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="R74" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S74" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="T74" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="U74" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="V74" t="n">
         <v>8.25</v>
       </c>
       <c r="W74" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="X74" t="n">
         <v>13.5</v>
@@ -9280,13 +9284,13 @@
         <v>22</v>
       </c>
       <c r="Z74" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AA74" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="AB74" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AC74" t="n">
         <v>50</v>
@@ -9295,7 +9299,7 @@
         <v>350</v>
       </c>
       <c r="AE74" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AF74" t="n">
         <v>22</v>
